--- a/data/procesados/furey.xlsx
+++ b/data/procesados/furey.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1877"/>
+  <dimension ref="A1:D1884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>802</v>
+        <v>881</v>
       </c>
     </row>
     <row r="15">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>926</v>
+        <v>974</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1472</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="23">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2226</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="24">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>457</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>359</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>623</v>
+        <v>701</v>
       </c>
     </row>
     <row r="58">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1157</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="59">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1554</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="62">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>787</v>
+        <v>866</v>
       </c>
     </row>
     <row r="63">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1036</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="64">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65">
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>412</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>467</v>
+        <v>515</v>
       </c>
     </row>
     <row r="68">
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>663</v>
+        <v>730</v>
       </c>
     </row>
     <row r="75">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>381</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>12677</v>
+        <v>14326</v>
       </c>
     </row>
     <row r="97">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1203</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="111">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>23701</v>
+        <v>37923</v>
       </c>
     </row>
     <row r="112">
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>495</v>
+        <v>544</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>567</v>
+        <v>623</v>
       </c>
     </row>
     <row r="119">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>567</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>656</v>
+        <v>721</v>
       </c>
     </row>
     <row r="121">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124">
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>764</v>
+        <v>840</v>
       </c>
     </row>
     <row r="127">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1394</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="128">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1204</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="129">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1726</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="130">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1819</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="131">
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132">
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2478</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="133">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1148</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="134">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1481</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="147">
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>656</v>
+        <v>721</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>229</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>582</v>
+        <v>640</v>
       </c>
     </row>
     <row r="162">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>525</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>491</v>
+        <v>540</v>
       </c>
     </row>
     <row r="164">
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2303</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="165">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2883</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="166">
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>764</v>
+        <v>840</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>668</v>
+        <v>735</v>
       </c>
     </row>
     <row r="169">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>948</v>
+        <v>997</v>
       </c>
     </row>
     <row r="170">
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>495</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176">
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="189">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1062</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="190">
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1539</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="191">
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1671</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="192">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>368</v>
+        <v>393</v>
       </c>
     </row>
     <row r="195">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>26685</v>
+        <v>29354</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>687</v>
+        <v>755</v>
       </c>
     </row>
     <row r="198">
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>36897</v>
+        <v>40586</v>
       </c>
     </row>
     <row r="199">
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>50240</v>
+        <v>55264</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>487</v>
+        <v>536</v>
       </c>
     </row>
     <row r="202">
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1173</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="206">
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1173</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="207">
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1163</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="229">
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1163</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="230">
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1318</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="231">
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1318</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="232">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1426</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="233">
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1318</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="234">
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1318</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="235">
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1522</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="236">
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1522</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="237">
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1638</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="238">
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="255">
@@ -5825,7 +5825,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1725</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="270">
@@ -5845,7 +5845,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2526</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="271">
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>562</v>
+        <v>893</v>
       </c>
     </row>
     <row r="272">
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="280">
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
     </row>
     <row r="281">
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
     </row>
     <row r="282">
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>608</v>
+        <v>643</v>
       </c>
     </row>
     <row r="283">
@@ -6105,7 +6105,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>608</v>
+        <v>643</v>
       </c>
     </row>
     <row r="284">
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>608</v>
+        <v>643</v>
       </c>
     </row>
     <row r="285">
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1749</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="291">
@@ -7065,7 +7065,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>2486</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="332">
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>663</v>
+        <v>730</v>
       </c>
     </row>
     <row r="334">
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="335">
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="336">
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337">
@@ -7185,7 +7185,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="338">
@@ -7205,7 +7205,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="339">
@@ -7225,7 +7225,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="340">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="341">
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="343">
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="344">
@@ -7325,7 +7325,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="345">
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="346">
@@ -7445,7 +7445,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>563</v>
+        <v>619</v>
       </c>
     </row>
     <row r="351">
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="352">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>2367</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="356">
@@ -7565,7 +7565,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>729</v>
+        <v>802</v>
       </c>
     </row>
     <row r="357">
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>729</v>
+        <v>802</v>
       </c>
     </row>
     <row r="358">
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>729</v>
+        <v>802</v>
       </c>
     </row>
     <row r="359">
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="360">
@@ -7645,7 +7645,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="361">
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="362">
@@ -7685,7 +7685,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="363">
@@ -7705,7 +7705,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>630</v>
+        <v>819</v>
       </c>
     </row>
     <row r="364">
@@ -7725,7 +7725,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>630</v>
+        <v>819</v>
       </c>
     </row>
     <row r="365">
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>630</v>
+        <v>819</v>
       </c>
     </row>
     <row r="366">
@@ -7765,7 +7765,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>630</v>
+        <v>819</v>
       </c>
     </row>
     <row r="367">
@@ -8865,7 +8865,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>583</v>
+        <v>642</v>
       </c>
     </row>
     <row r="422">
@@ -8885,7 +8885,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>583</v>
+        <v>642</v>
       </c>
     </row>
     <row r="423">
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>583</v>
+        <v>642</v>
       </c>
     </row>
     <row r="424">
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>583</v>
+        <v>642</v>
       </c>
     </row>
     <row r="425">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>642</v>
+        <v>707</v>
       </c>
     </row>
     <row r="503">
@@ -10505,7 +10505,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>642</v>
+        <v>707</v>
       </c>
     </row>
     <row r="504">
@@ -10525,7 +10525,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>642</v>
+        <v>707</v>
       </c>
     </row>
     <row r="505">
@@ -10545,7 +10545,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>1151</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="506">
@@ -10565,7 +10565,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>1151</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="507">
@@ -10585,7 +10585,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>1151</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="508">
@@ -10605,7 +10605,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="509">
@@ -10625,7 +10625,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="510">
@@ -10645,7 +10645,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="511">
@@ -10665,7 +10665,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>673</v>
+        <v>741</v>
       </c>
     </row>
     <row r="512">
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>673</v>
+        <v>741</v>
       </c>
     </row>
     <row r="513">
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>673</v>
+        <v>741</v>
       </c>
     </row>
     <row r="514">
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>673</v>
+        <v>741</v>
       </c>
     </row>
     <row r="515">
@@ -10745,7 +10745,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>673</v>
+        <v>741</v>
       </c>
     </row>
     <row r="516">
@@ -10765,7 +10765,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>673</v>
+        <v>741</v>
       </c>
     </row>
     <row r="517">
@@ -10785,7 +10785,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>673</v>
+        <v>741</v>
       </c>
     </row>
     <row r="518">
@@ -10805,7 +10805,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>568</v>
+        <v>624</v>
       </c>
     </row>
     <row r="519">
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>568</v>
+        <v>624</v>
       </c>
     </row>
     <row r="520">
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>568</v>
+        <v>624</v>
       </c>
     </row>
     <row r="521">
@@ -10865,7 +10865,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>568</v>
+        <v>624</v>
       </c>
     </row>
     <row r="522">
@@ -10885,7 +10885,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>568</v>
+        <v>624</v>
       </c>
     </row>
     <row r="523">
@@ -10905,7 +10905,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>568</v>
+        <v>624</v>
       </c>
     </row>
     <row r="524">
@@ -11905,7 +11905,7 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>14791</v>
+        <v>16270</v>
       </c>
     </row>
     <row r="574">
@@ -11965,7 +11965,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>1720</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="577">
@@ -12145,7 +12145,7 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="586">
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="587">
@@ -12185,7 +12185,7 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="588">
@@ -12245,7 +12245,7 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>4569</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="591">
@@ -12265,7 +12265,7 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>4345</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="592">
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>4569</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="593">
@@ -12305,7 +12305,7 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>4345</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="594">
@@ -12325,7 +12325,7 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>2644</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="595">
@@ -12345,7 +12345,7 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>2644</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="596">
@@ -12445,7 +12445,7 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="601">
@@ -12465,7 +12465,7 @@
         </is>
       </c>
       <c r="D601" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="602">
@@ -12485,7 +12485,7 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="603">
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="604">
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="605">
@@ -12545,7 +12545,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>663</v>
+        <v>730</v>
       </c>
     </row>
     <row r="606">
@@ -12705,7 +12705,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="614">
@@ -12725,7 +12725,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="615">
@@ -12745,7 +12745,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="616">
@@ -12765,7 +12765,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>798</v>
+        <v>877</v>
       </c>
     </row>
     <row r="617">
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>798</v>
+        <v>877</v>
       </c>
     </row>
     <row r="618">
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>798</v>
+        <v>877</v>
       </c>
     </row>
     <row r="619">
@@ -12825,7 +12825,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="620">
@@ -12845,7 +12845,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="621">
@@ -12865,7 +12865,7 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="622">
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="623">
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="624">
@@ -12925,7 +12925,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="625">
@@ -12945,7 +12945,7 @@
         </is>
       </c>
       <c r="D625" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="626">
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="627">
@@ -12985,7 +12985,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="628">
@@ -13085,7 +13085,7 @@
         </is>
       </c>
       <c r="D632" t="n">
-        <v>553</v>
+        <v>636</v>
       </c>
     </row>
     <row r="633">
@@ -13105,7 +13105,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>346</v>
+        <v>398</v>
       </c>
     </row>
     <row r="634">
@@ -13125,7 +13125,7 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>951</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="635">
@@ -13145,7 +13145,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>872</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="636">
@@ -13165,7 +13165,7 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>288</v>
+        <v>331</v>
       </c>
     </row>
     <row r="637">
@@ -13185,7 +13185,7 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="638">
@@ -13205,7 +13205,7 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="639">
@@ -13225,7 +13225,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>359</v>
+        <v>413</v>
       </c>
     </row>
     <row r="640">
@@ -13245,7 +13245,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>346</v>
+        <v>398</v>
       </c>
     </row>
     <row r="641">
@@ -13261,11 +13261,11 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>MS BROCHE ESTAMPADO x 1  149</t>
+          <t>MS BROCHE ESTAMPADO 149</t>
         </is>
       </c>
       <c r="D641" t="n">
-        <v>324</v>
+        <v>372</v>
       </c>
     </row>
     <row r="642">
@@ -13285,7 +13285,7 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>558</v>
+        <v>641</v>
       </c>
     </row>
     <row r="643">
@@ -13305,7 +13305,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="644">
@@ -13325,7 +13325,7 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>340</v>
+        <v>392</v>
       </c>
     </row>
     <row r="645">
@@ -13345,7 +13345,7 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>1328</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="646">
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>776</v>
+        <v>893</v>
       </c>
     </row>
     <row r="647">
@@ -13385,7 +13385,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>549</v>
+        <v>631</v>
       </c>
     </row>
     <row r="648">
@@ -13405,7 +13405,7 @@
         </is>
       </c>
       <c r="D648" t="n">
-        <v>399</v>
+        <v>460</v>
       </c>
     </row>
     <row r="649">
@@ -13425,7 +13425,7 @@
         </is>
       </c>
       <c r="D649" t="n">
-        <v>686</v>
+        <v>788</v>
       </c>
     </row>
     <row r="650">
@@ -13445,7 +13445,7 @@
         </is>
       </c>
       <c r="D650" t="n">
-        <v>513</v>
+        <v>590</v>
       </c>
     </row>
     <row r="651">
@@ -13465,7 +13465,7 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>551</v>
+        <v>634</v>
       </c>
     </row>
     <row r="652">
@@ -13485,7 +13485,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>1029</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="653">
@@ -13505,7 +13505,7 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>2244</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="654">
@@ -13525,7 +13525,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>2244</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="655">
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>408</v>
+        <v>469</v>
       </c>
     </row>
     <row r="656">
@@ -13565,7 +13565,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>1617</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="657">
@@ -13585,7 +13585,7 @@
         </is>
       </c>
       <c r="D657" t="n">
-        <v>700</v>
+        <v>805</v>
       </c>
     </row>
     <row r="658">
@@ -13605,7 +13605,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>3436</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="659">
@@ -13625,7 +13625,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>613</v>
+        <v>706</v>
       </c>
     </row>
     <row r="660">
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>394</v>
+        <v>453</v>
       </c>
     </row>
     <row r="661">
@@ -13665,7 +13665,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>507</v>
+        <v>583</v>
       </c>
     </row>
     <row r="662">
@@ -13685,7 +13685,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>715</v>
+        <v>823</v>
       </c>
     </row>
     <row r="663">
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>3622</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="677">
@@ -14005,7 +14005,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>920</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="679">
@@ -14025,7 +14025,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>920</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="680">
@@ -14045,7 +14045,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>920</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="681">
@@ -14065,7 +14065,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>920</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="682">
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>920</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="683">
@@ -14105,7 +14105,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="684">
@@ -14125,7 +14125,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>655</v>
+        <v>754</v>
       </c>
     </row>
     <row r="685">
@@ -14145,7 +14145,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>386</v>
+        <v>444</v>
       </c>
     </row>
     <row r="686">
@@ -14165,7 +14165,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>481</v>
+        <v>552</v>
       </c>
     </row>
     <row r="687">
@@ -14185,7 +14185,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>558</v>
+        <v>641</v>
       </c>
     </row>
     <row r="688">
@@ -14205,7 +14205,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="689">
@@ -14225,7 +14225,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="690">
@@ -14245,7 +14245,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="691">
@@ -14265,7 +14265,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>3166</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="692">
@@ -14285,7 +14285,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>3166</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="693">
@@ -14305,7 +14305,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>994</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="694">
@@ -14345,7 +14345,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="696">
@@ -14365,7 +14365,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="697">
@@ -14385,7 +14385,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="698">
@@ -14405,7 +14405,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>422</v>
+        <v>465</v>
       </c>
     </row>
     <row r="699">
@@ -14425,7 +14425,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>2204</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="700">
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>412</v>
+        <v>474</v>
       </c>
     </row>
     <row r="701">
@@ -14465,7 +14465,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>496</v>
+        <v>571</v>
       </c>
     </row>
     <row r="702">
@@ -14485,7 +14485,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>439</v>
+        <v>505</v>
       </c>
     </row>
     <row r="703">
@@ -14505,7 +14505,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>1015</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="704">
@@ -14525,7 +14525,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>1015</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="705">
@@ -14565,7 +14565,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>1457</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="707">
@@ -14585,7 +14585,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>1457</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="708">
@@ -14605,7 +14605,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>1457</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="709">
@@ -14625,7 +14625,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>1457</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="710">
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>1457</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="711">
@@ -14665,7 +14665,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>1457</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="712">
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="713">
@@ -14745,7 +14745,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>543</v>
+        <v>597</v>
       </c>
     </row>
     <row r="716">
@@ -14765,7 +14765,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>543</v>
+        <v>597</v>
       </c>
     </row>
     <row r="717">
@@ -14785,7 +14785,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>543</v>
+        <v>597</v>
       </c>
     </row>
     <row r="718">
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>614</v>
+        <v>676</v>
       </c>
     </row>
     <row r="719">
@@ -14825,7 +14825,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>614</v>
+        <v>676</v>
       </c>
     </row>
     <row r="720">
@@ -14845,7 +14845,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>614</v>
+        <v>676</v>
       </c>
     </row>
     <row r="721">
@@ -14865,7 +14865,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>486</v>
+        <v>532</v>
       </c>
     </row>
     <row r="722">
@@ -14885,7 +14885,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>486</v>
+        <v>532</v>
       </c>
     </row>
     <row r="723">
@@ -14925,7 +14925,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>702</v>
+        <v>773</v>
       </c>
     </row>
     <row r="725">
@@ -14945,7 +14945,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>702</v>
+        <v>773</v>
       </c>
     </row>
     <row r="726">
@@ -14965,7 +14965,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>702</v>
+        <v>773</v>
       </c>
     </row>
     <row r="727">
@@ -14985,7 +14985,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="728">
@@ -15005,7 +15005,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>4088</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="729">
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>450</v>
+        <v>496</v>
       </c>
     </row>
     <row r="730">
@@ -15045,7 +15045,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="731">
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>1864</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="737">
@@ -15185,7 +15185,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>290</v>
+        <v>334</v>
       </c>
     </row>
     <row r="738">
@@ -15205,7 +15205,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>374</v>
+        <v>431</v>
       </c>
     </row>
     <row r="739">
@@ -15225,7 +15225,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>466</v>
+        <v>535</v>
       </c>
     </row>
     <row r="740">
@@ -15245,7 +15245,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>374</v>
+        <v>431</v>
       </c>
     </row>
     <row r="741">
@@ -15265,7 +15265,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>290</v>
+        <v>334</v>
       </c>
     </row>
     <row r="742">
@@ -15285,7 +15285,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>507</v>
+        <v>583</v>
       </c>
     </row>
     <row r="743">
@@ -15345,7 +15345,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>1277</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="746">
@@ -15365,7 +15365,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>14434</v>
+        <v>15589</v>
       </c>
     </row>
     <row r="747">
@@ -15385,7 +15385,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>25892</v>
+        <v>27964</v>
       </c>
     </row>
     <row r="748">
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="749">
@@ -15425,7 +15425,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>1079</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="750">
@@ -15445,7 +15445,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>305</v>
+        <v>335</v>
       </c>
     </row>
     <row r="751">
@@ -15465,7 +15465,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>305</v>
+        <v>335</v>
       </c>
     </row>
     <row r="752">
@@ -15485,7 +15485,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="753">
@@ -15505,7 +15505,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="754">
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="755">
@@ -15545,7 +15545,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="756">
@@ -15565,7 +15565,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>1457</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="757">
@@ -15585,7 +15585,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>1457</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="758">
@@ -15625,7 +15625,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>615</v>
+        <v>738</v>
       </c>
     </row>
     <row r="760">
@@ -15645,7 +15645,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>945</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="761">
@@ -15665,7 +15665,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>945</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="762">
@@ -15685,7 +15685,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>945</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="763">
@@ -15725,7 +15725,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>15887</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="765">
@@ -15745,7 +15745,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>855</v>
+        <v>941</v>
       </c>
     </row>
     <row r="766">
@@ -15765,7 +15765,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>855</v>
+        <v>941</v>
       </c>
     </row>
     <row r="767">
@@ -15785,7 +15785,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>855</v>
+        <v>941</v>
       </c>
     </row>
     <row r="768">
@@ -15845,7 +15845,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="771">
@@ -15865,7 +15865,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="772">
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>886</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="773">
@@ -15905,7 +15905,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>886</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="774">
@@ -15945,7 +15945,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="776">
@@ -15965,7 +15965,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="777">
@@ -15985,7 +15985,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="778">
@@ -16005,7 +16005,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>2478</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="779">
@@ -16025,7 +16025,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>1819</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="780">
@@ -16045,7 +16045,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>1204</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="781">
@@ -16065,7 +16065,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>1148</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="782">
@@ -16085,7 +16085,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>1394</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="783">
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>412</v>
+        <v>453</v>
       </c>
     </row>
     <row r="785">
@@ -16145,7 +16145,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>681</v>
+        <v>748</v>
       </c>
     </row>
     <row r="786">
@@ -16185,7 +16185,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>19312</v>
+        <v>30900</v>
       </c>
     </row>
     <row r="788">
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>945</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="791">
@@ -16265,7 +16265,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>656</v>
+        <v>721</v>
       </c>
     </row>
     <row r="792">
@@ -16285,7 +16285,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>495</v>
+        <v>544</v>
       </c>
     </row>
     <row r="793">
@@ -16305,7 +16305,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>567</v>
+        <v>623</v>
       </c>
     </row>
     <row r="794">
@@ -16325,7 +16325,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>465</v>
+        <v>511</v>
       </c>
     </row>
     <row r="795">
@@ -16345,7 +16345,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>496</v>
+        <v>545</v>
       </c>
     </row>
     <row r="796">
@@ -16665,7 +16665,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>12438</v>
+        <v>19902</v>
       </c>
     </row>
     <row r="812">
@@ -16685,7 +16685,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>465</v>
+        <v>511</v>
       </c>
     </row>
     <row r="813">
@@ -16785,7 +16785,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>945</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="818">
@@ -16825,7 +16825,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="820">
@@ -16865,7 +16865,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>886</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="822">
@@ -16885,7 +16885,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>886</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="823">
@@ -16905,7 +16905,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>886</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="824">
@@ -16945,7 +16945,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>7050</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="826">
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>6159</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="827">
@@ -17605,7 +17605,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="859">
@@ -17665,7 +17665,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>994</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="862">
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>1316</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="863">
@@ -17705,7 +17705,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>1460</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="864">
@@ -17725,7 +17725,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>1316</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="865">
@@ -17785,7 +17785,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="868">
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="875">
@@ -17945,7 +17945,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="876">
@@ -18145,7 +18145,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>398</v>
+        <v>437</v>
       </c>
     </row>
     <row r="886">
@@ -18165,7 +18165,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>476</v>
+        <v>523</v>
       </c>
     </row>
     <row r="887">
@@ -18185,7 +18185,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>476</v>
+        <v>523</v>
       </c>
     </row>
     <row r="888">
@@ -18225,7 +18225,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="890">
@@ -18245,7 +18245,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>886</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="891">
@@ -18265,7 +18265,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>886</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="892">
@@ -18665,7 +18665,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>1021</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="912">
@@ -18725,7 +18725,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
     </row>
     <row r="915">
@@ -18745,7 +18745,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>400</v>
+        <v>427</v>
       </c>
     </row>
     <row r="916">
@@ -18825,7 +18825,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="920">
@@ -18845,7 +18845,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>185</v>
+        <v>224</v>
       </c>
     </row>
     <row r="921">
@@ -18865,7 +18865,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="922">
@@ -18945,7 +18945,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="926">
@@ -18965,7 +18965,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="927">
@@ -18985,7 +18985,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="928">
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="929">
@@ -19025,7 +19025,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="930">
@@ -19045,7 +19045,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="931">
@@ -19065,7 +19065,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>577</v>
+        <v>605</v>
       </c>
     </row>
     <row r="932">
@@ -19085,7 +19085,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>8298</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="933">
@@ -19105,7 +19105,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>8291</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="934">
@@ -19645,7 +19645,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
     </row>
     <row r="961">
@@ -19665,7 +19665,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>1090</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="962">
@@ -19805,7 +19805,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="969">
@@ -19825,7 +19825,7 @@
         </is>
       </c>
       <c r="D969" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="970">
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="971">
@@ -19865,7 +19865,7 @@
         </is>
       </c>
       <c r="D971" t="n">
-        <v>4690</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="972">
@@ -19885,7 +19885,7 @@
         </is>
       </c>
       <c r="D972" t="n">
-        <v>4022</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="973">
@@ -19905,7 +19905,7 @@
         </is>
       </c>
       <c r="D973" t="n">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="974">
@@ -20025,7 +20025,7 @@
         </is>
       </c>
       <c r="D979" t="n">
-        <v>5561</v>
+        <v>8898</v>
       </c>
     </row>
     <row r="980">
@@ -20045,7 +20045,7 @@
         </is>
       </c>
       <c r="D980" t="n">
-        <v>4367</v>
+        <v>6988</v>
       </c>
     </row>
     <row r="981">
@@ -20245,7 +20245,7 @@
         </is>
       </c>
       <c r="D990" t="n">
-        <v>1042</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="991">
@@ -20285,7 +20285,7 @@
         </is>
       </c>
       <c r="D992" t="n">
-        <v>2912</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="993">
@@ -20305,7 +20305,7 @@
         </is>
       </c>
       <c r="D993" t="n">
-        <v>2912</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="994">
@@ -20325,7 +20325,7 @@
         </is>
       </c>
       <c r="D994" t="n">
-        <v>3286</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="995">
@@ -20345,7 +20345,7 @@
         </is>
       </c>
       <c r="D995" t="n">
-        <v>3286</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="996">
@@ -20365,7 +20365,7 @@
         </is>
       </c>
       <c r="D996" t="n">
-        <v>16758</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="997">
@@ -20385,7 +20385,7 @@
         </is>
       </c>
       <c r="D997" t="n">
-        <v>6116</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="998">
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="D1000" t="n">
-        <v>4973</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="1001">
@@ -20465,7 +20465,7 @@
         </is>
       </c>
       <c r="D1001" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1002">
@@ -20485,7 +20485,7 @@
         </is>
       </c>
       <c r="D1002" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1003">
@@ -20505,7 +20505,7 @@
         </is>
       </c>
       <c r="D1003" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1004">
@@ -20525,7 +20525,7 @@
         </is>
       </c>
       <c r="D1004" t="n">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1005">
@@ -20545,7 +20545,7 @@
         </is>
       </c>
       <c r="D1005" t="n">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1006">
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D1006" t="n">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1007">
@@ -20585,7 +20585,7 @@
         </is>
       </c>
       <c r="D1007" t="n">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="1008">
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>840</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1043">
@@ -21305,7 +21305,7 @@
         </is>
       </c>
       <c r="D1043" t="n">
-        <v>840</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1044">
@@ -21585,7 +21585,7 @@
         </is>
       </c>
       <c r="D1057" t="n">
-        <v>16433</v>
+        <v>18570</v>
       </c>
     </row>
     <row r="1058">
@@ -21605,7 +21605,7 @@
         </is>
       </c>
       <c r="D1058" t="n">
-        <v>663</v>
+        <v>701</v>
       </c>
     </row>
     <row r="1059">
@@ -21625,7 +21625,7 @@
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="1060">
@@ -21785,7 +21785,7 @@
         </is>
       </c>
       <c r="D1067" t="n">
-        <v>840</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1068">
@@ -21805,7 +21805,7 @@
         </is>
       </c>
       <c r="D1068" t="n">
-        <v>840</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1069">
@@ -21985,7 +21985,7 @@
         </is>
       </c>
       <c r="D1077" t="n">
-        <v>561</v>
+        <v>618</v>
       </c>
     </row>
     <row r="1078">
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D1078" t="n">
-        <v>561</v>
+        <v>618</v>
       </c>
     </row>
     <row r="1079">
@@ -22025,7 +22025,7 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>3026</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="1080">
@@ -22065,7 +22065,7 @@
         </is>
       </c>
       <c r="D1081" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1082">
@@ -22125,7 +22125,7 @@
         </is>
       </c>
       <c r="D1084" t="n">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1085">
@@ -22185,7 +22185,7 @@
         </is>
       </c>
       <c r="D1087" t="n">
-        <v>5304</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="1088">
@@ -22205,7 +22205,7 @@
         </is>
       </c>
       <c r="D1088" t="n">
-        <v>788</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1089">
@@ -22225,7 +22225,7 @@
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>886</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1090">
@@ -22545,7 +22545,7 @@
         </is>
       </c>
       <c r="D1105" t="n">
-        <v>2034</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1106">
@@ -22565,7 +22565,7 @@
         </is>
       </c>
       <c r="D1106" t="n">
-        <v>779</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1107">
@@ -22685,7 +22685,7 @@
         </is>
       </c>
       <c r="D1112" t="n">
-        <v>576</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1113">
@@ -22845,7 +22845,7 @@
         </is>
       </c>
       <c r="D1120" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1121">
@@ -22865,7 +22865,7 @@
         </is>
       </c>
       <c r="D1121" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1122">
@@ -22885,7 +22885,7 @@
         </is>
       </c>
       <c r="D1122" t="n">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1123">
@@ -22905,7 +22905,7 @@
         </is>
       </c>
       <c r="D1123" t="n">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1124">
@@ -22925,7 +22925,7 @@
         </is>
       </c>
       <c r="D1124" t="n">
-        <v>863</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1125">
@@ -22945,7 +22945,7 @@
         </is>
       </c>
       <c r="D1125" t="n">
-        <v>863</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1126">
@@ -22965,7 +22965,7 @@
         </is>
       </c>
       <c r="D1126" t="n">
-        <v>863</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1127">
@@ -22985,7 +22985,7 @@
         </is>
       </c>
       <c r="D1127" t="n">
-        <v>863</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1128">
@@ -23005,7 +23005,7 @@
         </is>
       </c>
       <c r="D1128" t="n">
-        <v>863</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1129">
@@ -23065,7 +23065,7 @@
         </is>
       </c>
       <c r="D1131" t="n">
-        <v>124</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1132">
@@ -23505,7 +23505,7 @@
         </is>
       </c>
       <c r="D1153" t="n">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1154">
@@ -23525,7 +23525,7 @@
         </is>
       </c>
       <c r="D1154" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1155">
@@ -23545,7 +23545,7 @@
         </is>
       </c>
       <c r="D1155" t="n">
-        <v>2976</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="1156">
@@ -23585,7 +23585,7 @@
         </is>
       </c>
       <c r="D1157" t="n">
-        <v>597</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1158">
@@ -23605,7 +23605,7 @@
         </is>
       </c>
       <c r="D1158" t="n">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="1159">
@@ -23625,7 +23625,7 @@
         </is>
       </c>
       <c r="D1159" t="n">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="1160">
@@ -23645,7 +23645,7 @@
         </is>
       </c>
       <c r="D1160" t="n">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="1161">
@@ -23665,7 +23665,7 @@
         </is>
       </c>
       <c r="D1161" t="n">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="1162">
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="D1162" t="n">
-        <v>863</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1163">
@@ -23705,7 +23705,7 @@
         </is>
       </c>
       <c r="D1163" t="n">
-        <v>863</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1164">
@@ -23725,7 +23725,7 @@
         </is>
       </c>
       <c r="D1164" t="n">
-        <v>444</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1165">
@@ -23745,7 +23745,7 @@
         </is>
       </c>
       <c r="D1165" t="n">
-        <v>389</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1166">
@@ -23765,7 +23765,7 @@
         </is>
       </c>
       <c r="D1166" t="n">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="1167">
@@ -23785,7 +23785,7 @@
         </is>
       </c>
       <c r="D1167" t="n">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1168">
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>422</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1169">
@@ -23825,7 +23825,7 @@
         </is>
       </c>
       <c r="D1169" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
     </row>
     <row r="1170">
@@ -23845,7 +23845,7 @@
         </is>
       </c>
       <c r="D1170" t="n">
-        <v>403</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1171">
@@ -24065,7 +24065,7 @@
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>1726</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1182">
@@ -24085,7 +24085,7 @@
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>560</v>
+        <v>606</v>
       </c>
     </row>
     <row r="1183">
@@ -24145,7 +24145,7 @@
         </is>
       </c>
       <c r="D1185" t="n">
-        <v>1726</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1186">
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D1186" t="n">
-        <v>1394</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1187">
@@ -24185,7 +24185,7 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1188">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="D1188" t="n">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1189">
@@ -24545,7 +24545,7 @@
         </is>
       </c>
       <c r="D1205" t="n">
-        <v>2016</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1206">
@@ -24565,7 +24565,7 @@
         </is>
       </c>
       <c r="D1206" t="n">
-        <v>1395</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1207">
@@ -24585,7 +24585,7 @@
         </is>
       </c>
       <c r="D1207" t="n">
-        <v>1830</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1208">
@@ -24605,7 +24605,7 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>5768</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="1209">
@@ -24625,7 +24625,7 @@
         </is>
       </c>
       <c r="D1209" t="n">
-        <v>7915</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="1210">
@@ -24665,7 +24665,7 @@
         </is>
       </c>
       <c r="D1211" t="n">
-        <v>2204</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1212">
@@ -24685,7 +24685,7 @@
         </is>
       </c>
       <c r="D1212" t="n">
-        <v>2204</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1213">
@@ -24705,7 +24705,7 @@
         </is>
       </c>
       <c r="D1213" t="n">
-        <v>1671</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1214">
@@ -24725,7 +24725,7 @@
         </is>
       </c>
       <c r="D1214" t="n">
-        <v>1671</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1215">
@@ -24745,7 +24745,7 @@
         </is>
       </c>
       <c r="D1215" t="n">
-        <v>1720</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1216">
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="D1216" t="n">
-        <v>1720</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1217">
@@ -24785,7 +24785,7 @@
         </is>
       </c>
       <c r="D1217" t="n">
-        <v>2486</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="1218">
@@ -24805,7 +24805,7 @@
         </is>
       </c>
       <c r="D1218" t="n">
-        <v>2486</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="1219">
@@ -24825,7 +24825,7 @@
         </is>
       </c>
       <c r="D1219" t="n">
-        <v>4088</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="1220">
@@ -24845,7 +24845,7 @@
         </is>
       </c>
       <c r="D1220" t="n">
-        <v>4088</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="1221">
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="D1234" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1235">
@@ -25205,7 +25205,7 @@
         </is>
       </c>
       <c r="D1238" t="n">
-        <v>2478</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="1239">
@@ -25225,7 +25225,7 @@
         </is>
       </c>
       <c r="D1239" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1240">
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1241">
@@ -25325,7 +25325,7 @@
         </is>
       </c>
       <c r="D1244" t="n">
-        <v>2106</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1245">
@@ -25345,7 +25345,7 @@
         </is>
       </c>
       <c r="D1245" t="n">
-        <v>2106</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1246">
@@ -25385,7 +25385,7 @@
         </is>
       </c>
       <c r="D1247" t="n">
-        <v>4461</v>
+        <v>7138</v>
       </c>
     </row>
     <row r="1248">
@@ -25405,7 +25405,7 @@
         </is>
       </c>
       <c r="D1248" t="n">
-        <v>4416</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="1249">
@@ -25425,7 +25425,7 @@
         </is>
       </c>
       <c r="D1249" t="n">
-        <v>5628</v>
+        <v>9005</v>
       </c>
     </row>
     <row r="1250">
@@ -25645,7 +25645,7 @@
         </is>
       </c>
       <c r="D1260" t="n">
-        <v>14112</v>
+        <v>22580</v>
       </c>
     </row>
     <row r="1261">
@@ -25665,7 +25665,7 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>3271</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1262">
@@ -25685,7 +25685,7 @@
         </is>
       </c>
       <c r="D1262" t="n">
-        <v>1481</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1263">
@@ -25705,7 +25705,7 @@
         </is>
       </c>
       <c r="D1263" t="n">
-        <v>1726</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1264">
@@ -25725,7 +25725,7 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>271</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1265">
@@ -25745,7 +25745,7 @@
         </is>
       </c>
       <c r="D1265" t="n">
-        <v>138</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1266">
@@ -25825,7 +25825,7 @@
         </is>
       </c>
       <c r="D1269" t="n">
-        <v>1260</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1270">
@@ -25845,7 +25845,7 @@
         </is>
       </c>
       <c r="D1270" t="n">
-        <v>1260</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1271">
@@ -25865,7 +25865,7 @@
         </is>
       </c>
       <c r="D1271" t="n">
-        <v>1260</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1272">
@@ -25885,7 +25885,7 @@
         </is>
       </c>
       <c r="D1272" t="n">
-        <v>639</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1273">
@@ -25905,7 +25905,7 @@
         </is>
       </c>
       <c r="D1273" t="n">
-        <v>4980</v>
+        <v>7304</v>
       </c>
     </row>
     <row r="1274">
@@ -25925,7 +25925,7 @@
         </is>
       </c>
       <c r="D1274" t="n">
-        <v>4980</v>
+        <v>7304</v>
       </c>
     </row>
     <row r="1275">
@@ -25945,7 +25945,7 @@
         </is>
       </c>
       <c r="D1275" t="n">
-        <v>557</v>
+        <v>608</v>
       </c>
     </row>
     <row r="1276">
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D1276" t="n">
-        <v>2106</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1277">
@@ -25985,7 +25985,7 @@
         </is>
       </c>
       <c r="D1277" t="n">
-        <v>2106</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1278">
@@ -26005,7 +26005,7 @@
         </is>
       </c>
       <c r="D1278" t="n">
-        <v>269</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1279">
@@ -26025,7 +26025,7 @@
         </is>
       </c>
       <c r="D1279" t="n">
-        <v>407</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1280">
@@ -26045,7 +26045,7 @@
         </is>
       </c>
       <c r="D1280" t="n">
-        <v>407</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1281">
@@ -26065,7 +26065,7 @@
         </is>
       </c>
       <c r="D1281" t="n">
-        <v>407</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1282">
@@ -26085,7 +26085,7 @@
         </is>
       </c>
       <c r="D1282" t="n">
-        <v>407</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1283">
@@ -26105,7 +26105,7 @@
         </is>
       </c>
       <c r="D1283" t="n">
-        <v>269</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1284">
@@ -26125,7 +26125,7 @@
         </is>
       </c>
       <c r="D1284" t="n">
-        <v>2106</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1285">
@@ -26245,7 +26245,7 @@
         </is>
       </c>
       <c r="D1290" t="n">
-        <v>12677</v>
+        <v>14326</v>
       </c>
     </row>
     <row r="1291">
@@ -26265,7 +26265,7 @@
         </is>
       </c>
       <c r="D1291" t="n">
-        <v>7177</v>
+        <v>7751</v>
       </c>
     </row>
     <row r="1292">
@@ -26285,7 +26285,7 @@
         </is>
       </c>
       <c r="D1292" t="n">
-        <v>9560</v>
+        <v>10325</v>
       </c>
     </row>
     <row r="1293">
@@ -26305,7 +26305,7 @@
         </is>
       </c>
       <c r="D1293" t="n">
-        <v>9977</v>
+        <v>10775</v>
       </c>
     </row>
     <row r="1294">
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D1294" t="n">
-        <v>2762</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1295">
@@ -26345,7 +26345,7 @@
         </is>
       </c>
       <c r="D1295" t="n">
-        <v>2762</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1296">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="D1296" t="n">
-        <v>2762</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1297">
@@ -26385,7 +26385,7 @@
         </is>
       </c>
       <c r="D1297" t="n">
-        <v>656</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1298">
@@ -26405,7 +26405,7 @@
         </is>
       </c>
       <c r="D1298" t="n">
-        <v>656</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1299">
@@ -26425,7 +26425,7 @@
         </is>
       </c>
       <c r="D1299" t="n">
-        <v>656</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1300">
@@ -26445,7 +26445,7 @@
         </is>
       </c>
       <c r="D1300" t="n">
-        <v>948</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1301">
@@ -26465,7 +26465,7 @@
         </is>
       </c>
       <c r="D1301" t="n">
-        <v>948</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1302">
@@ -26485,7 +26485,7 @@
         </is>
       </c>
       <c r="D1302" t="n">
-        <v>948</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1303">
@@ -26625,7 +26625,7 @@
         </is>
       </c>
       <c r="D1309" t="n">
-        <v>777</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1310">
@@ -27385,7 +27385,7 @@
         </is>
       </c>
       <c r="D1347" t="n">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1348">
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D1348" t="n">
-        <v>354</v>
+        <v>383</v>
       </c>
     </row>
     <row r="1349">
@@ -27425,7 +27425,7 @@
         </is>
       </c>
       <c r="D1349" t="n">
-        <v>621</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1350">
@@ -27445,7 +27445,7 @@
         </is>
       </c>
       <c r="D1350" t="n">
-        <v>886</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1351">
@@ -27505,7 +27505,7 @@
         </is>
       </c>
       <c r="D1353" t="n">
-        <v>1204</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1354">
@@ -27665,7 +27665,7 @@
         </is>
       </c>
       <c r="D1361" t="n">
-        <v>323</v>
+        <v>371</v>
       </c>
     </row>
     <row r="1362">
@@ -27685,7 +27685,7 @@
         </is>
       </c>
       <c r="D1362" t="n">
-        <v>578</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1363">
@@ -27705,7 +27705,7 @@
         </is>
       </c>
       <c r="D1363" t="n">
-        <v>649</v>
+        <v>746</v>
       </c>
     </row>
     <row r="1364">
@@ -27725,7 +27725,7 @@
         </is>
       </c>
       <c r="D1364" t="n">
-        <v>470</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1365">
@@ -27745,7 +27745,7 @@
         </is>
       </c>
       <c r="D1365" t="n">
-        <v>294</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1366">
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D1366" t="n">
-        <v>697</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1367">
@@ -27785,7 +27785,7 @@
         </is>
       </c>
       <c r="D1367" t="n">
-        <v>662</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1368">
@@ -27805,7 +27805,7 @@
         </is>
       </c>
       <c r="D1368" t="n">
-        <v>453</v>
+        <v>521</v>
       </c>
     </row>
     <row r="1369">
@@ -27825,7 +27825,7 @@
         </is>
       </c>
       <c r="D1369" t="n">
-        <v>2478</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="1370">
@@ -27845,7 +27845,7 @@
         </is>
       </c>
       <c r="D1370" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1371">
@@ -27865,7 +27865,7 @@
         </is>
       </c>
       <c r="D1371" t="n">
-        <v>1394</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1372">
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D1384" t="n">
-        <v>671</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1385">
@@ -28145,7 +28145,7 @@
         </is>
       </c>
       <c r="D1385" t="n">
-        <v>594</v>
+        <v>654</v>
       </c>
     </row>
     <row r="1386">
@@ -28165,7 +28165,7 @@
         </is>
       </c>
       <c r="D1386" t="n">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1387">
@@ -28185,7 +28185,7 @@
         </is>
       </c>
       <c r="D1387" t="n">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1388">
@@ -28205,7 +28205,7 @@
         </is>
       </c>
       <c r="D1388" t="n">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1389">
@@ -28225,7 +28225,7 @@
         </is>
       </c>
       <c r="D1389" t="n">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="1390">
@@ -28685,7 +28685,7 @@
         </is>
       </c>
       <c r="D1412" t="n">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="1413">
@@ -28705,7 +28705,7 @@
         </is>
       </c>
       <c r="D1413" t="n">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1414">
@@ -28825,7 +28825,7 @@
         </is>
       </c>
       <c r="D1419" t="n">
-        <v>1169</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1420">
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D1420" t="n">
-        <v>2106</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1421">
@@ -28865,7 +28865,7 @@
         </is>
       </c>
       <c r="D1421" t="n">
-        <v>1052</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1422">
@@ -28885,7 +28885,7 @@
         </is>
       </c>
       <c r="D1422" t="n">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="1423">
@@ -28905,7 +28905,7 @@
         </is>
       </c>
       <c r="D1423" t="n">
-        <v>389</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1424">
@@ -28925,7 +28925,7 @@
         </is>
       </c>
       <c r="D1424" t="n">
-        <v>1345</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1425">
@@ -29005,7 +29005,7 @@
         </is>
       </c>
       <c r="D1428" t="n">
-        <v>1872</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1429">
@@ -29025,7 +29025,7 @@
         </is>
       </c>
       <c r="D1429" t="n">
-        <v>1965</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1430">
@@ -29045,7 +29045,7 @@
         </is>
       </c>
       <c r="D1430" t="n">
-        <v>2633</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1431">
@@ -29165,7 +29165,7 @@
         </is>
       </c>
       <c r="D1436" t="n">
-        <v>6159</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="1437">
@@ -29185,7 +29185,7 @@
         </is>
       </c>
       <c r="D1437" t="n">
-        <v>7373</v>
+        <v>7964</v>
       </c>
     </row>
     <row r="1438">
@@ -29325,7 +29325,7 @@
         </is>
       </c>
       <c r="D1444" t="n">
-        <v>564</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1445">
@@ -29365,7 +29365,7 @@
         </is>
       </c>
       <c r="D1446" t="n">
-        <v>1069</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1447">
@@ -29385,7 +29385,7 @@
         </is>
       </c>
       <c r="D1447" t="n">
-        <v>1069</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1448">
@@ -29405,7 +29405,7 @@
         </is>
       </c>
       <c r="D1448" t="n">
-        <v>930</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1449">
@@ -29425,7 +29425,7 @@
         </is>
       </c>
       <c r="D1449" t="n">
-        <v>930</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1450">
@@ -29445,7 +29445,7 @@
         </is>
       </c>
       <c r="D1450" t="n">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1451">
@@ -29725,7 +29725,7 @@
         </is>
       </c>
       <c r="D1464" t="n">
-        <v>706</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1465">
@@ -29745,7 +29745,7 @@
         </is>
       </c>
       <c r="D1465" t="n">
-        <v>1345</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1466">
@@ -29765,7 +29765,7 @@
         </is>
       </c>
       <c r="D1466" t="n">
-        <v>1269</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1467">
@@ -29785,7 +29785,7 @@
         </is>
       </c>
       <c r="D1467" t="n">
-        <v>863</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1468">
@@ -29805,7 +29805,7 @@
         </is>
       </c>
       <c r="D1468" t="n">
-        <v>1269</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1469">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="D1469" t="n">
-        <v>1345</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1470">
@@ -29845,7 +29845,7 @@
         </is>
       </c>
       <c r="D1470" t="n">
-        <v>1345</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1471">
@@ -29865,7 +29865,7 @@
         </is>
       </c>
       <c r="D1471" t="n">
-        <v>877</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1472">
@@ -29905,7 +29905,7 @@
         </is>
       </c>
       <c r="D1473" t="n">
-        <v>3308</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="1474">
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D1474" t="n">
-        <v>388</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1475">
@@ -29945,7 +29945,7 @@
         </is>
       </c>
       <c r="D1475" t="n">
-        <v>552</v>
+        <v>598</v>
       </c>
     </row>
     <row r="1476">
@@ -29965,7 +29965,7 @@
         </is>
       </c>
       <c r="D1476" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1477">
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="D1477" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1478">
@@ -30005,7 +30005,7 @@
         </is>
       </c>
       <c r="D1478" t="n">
-        <v>282</v>
+        <v>327</v>
       </c>
     </row>
     <row r="1479">
@@ -30025,7 +30025,7 @@
         </is>
       </c>
       <c r="D1479" t="n">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1480">
@@ -30045,7 +30045,7 @@
         </is>
       </c>
       <c r="D1480" t="n">
-        <v>655</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1481">
@@ -30685,7 +30685,7 @@
         </is>
       </c>
       <c r="D1512" t="n">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1513">
@@ -30765,7 +30765,7 @@
         </is>
       </c>
       <c r="D1516" t="n">
-        <v>886</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1517">
@@ -30965,7 +30965,7 @@
         </is>
       </c>
       <c r="D1526" t="n">
-        <v>14362</v>
+        <v>15512</v>
       </c>
     </row>
     <row r="1527">
@@ -30985,7 +30985,7 @@
         </is>
       </c>
       <c r="D1527" t="n">
-        <v>15112</v>
+        <v>16322</v>
       </c>
     </row>
     <row r="1528">
@@ -31085,7 +31085,7 @@
         </is>
       </c>
       <c r="D1532" t="n">
-        <v>427</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1533">
@@ -31185,7 +31185,7 @@
         </is>
       </c>
       <c r="D1537" t="n">
-        <v>880</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1538">
@@ -31205,7 +31205,7 @@
         </is>
       </c>
       <c r="D1538" t="n">
-        <v>842</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1539">
@@ -31225,7 +31225,7 @@
         </is>
       </c>
       <c r="D1539" t="n">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1540">
@@ -31245,7 +31245,7 @@
         </is>
       </c>
       <c r="D1540" t="n">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1541">
@@ -31265,7 +31265,7 @@
         </is>
       </c>
       <c r="D1541" t="n">
-        <v>479</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1542">
@@ -31285,7 +31285,7 @@
         </is>
       </c>
       <c r="D1542" t="n">
-        <v>637</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1543">
@@ -31605,7 +31605,7 @@
         </is>
       </c>
       <c r="D1558" t="n">
-        <v>688</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1559">
@@ -31625,7 +31625,7 @@
         </is>
       </c>
       <c r="D1559" t="n">
-        <v>26143</v>
+        <v>28758</v>
       </c>
     </row>
     <row r="1560">
@@ -31645,7 +31645,7 @@
         </is>
       </c>
       <c r="D1560" t="n">
-        <v>34131</v>
+        <v>37544</v>
       </c>
     </row>
     <row r="1561">
@@ -31665,7 +31665,7 @@
         </is>
       </c>
       <c r="D1561" t="n">
-        <v>46624</v>
+        <v>51287</v>
       </c>
     </row>
     <row r="1562">
@@ -31685,7 +31685,7 @@
         </is>
       </c>
       <c r="D1562" t="n">
-        <v>1462</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1563">
@@ -31705,7 +31705,7 @@
         </is>
       </c>
       <c r="D1563" t="n">
-        <v>2038</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1564">
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D1564" t="n">
-        <v>2842</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1565">
@@ -31745,7 +31745,7 @@
         </is>
       </c>
       <c r="D1565" t="n">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1566">
@@ -31765,7 +31765,7 @@
         </is>
       </c>
       <c r="D1566" t="n">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1567">
@@ -31925,7 +31925,7 @@
         </is>
       </c>
       <c r="D1574" t="n">
-        <v>637</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1575">
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D1600" t="n">
-        <v>761</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1601">
@@ -32465,7 +32465,7 @@
         </is>
       </c>
       <c r="D1601" t="n">
-        <v>421</v>
+        <v>444</v>
       </c>
     </row>
     <row r="1602">
@@ -32485,7 +32485,7 @@
         </is>
       </c>
       <c r="D1602" t="n">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1603">
@@ -32505,7 +32505,7 @@
         </is>
       </c>
       <c r="D1603" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1604">
@@ -32525,7 +32525,7 @@
         </is>
       </c>
       <c r="D1604" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1605">
@@ -32545,7 +32545,7 @@
         </is>
       </c>
       <c r="D1605" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1606">
@@ -32565,7 +32565,7 @@
         </is>
       </c>
       <c r="D1606" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1607">
@@ -32685,7 +32685,7 @@
         </is>
       </c>
       <c r="D1612" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1613">
@@ -32785,7 +32785,7 @@
         </is>
       </c>
       <c r="D1617" t="n">
-        <v>7915</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="1618">
@@ -32845,7 +32845,7 @@
         </is>
       </c>
       <c r="D1620" t="n">
-        <v>1511</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1621">
@@ -32945,7 +32945,7 @@
         </is>
       </c>
       <c r="D1625" t="n">
-        <v>2440</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1626">
@@ -32965,7 +32965,7 @@
         </is>
       </c>
       <c r="D1626" t="n">
-        <v>2440</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1627">
@@ -32985,7 +32985,7 @@
         </is>
       </c>
       <c r="D1627" t="n">
-        <v>2440</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1628">
@@ -33005,7 +33005,7 @@
         </is>
       </c>
       <c r="D1628" t="n">
-        <v>2435</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1629">
@@ -33025,7 +33025,7 @@
         </is>
       </c>
       <c r="D1629" t="n">
-        <v>2226</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="1630">
@@ -33065,7 +33065,7 @@
         </is>
       </c>
       <c r="D1631" t="n">
-        <v>1311</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1632">
@@ -33085,7 +33085,7 @@
         </is>
       </c>
       <c r="D1632" t="n">
-        <v>1311</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1633">
@@ -33105,7 +33105,7 @@
         </is>
       </c>
       <c r="D1633" t="n">
-        <v>1311</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1634">
@@ -33125,7 +33125,7 @@
         </is>
       </c>
       <c r="D1634" t="n">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1635">
@@ -33145,7 +33145,7 @@
         </is>
       </c>
       <c r="D1635" t="n">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1636">
@@ -33205,7 +33205,7 @@
         </is>
       </c>
       <c r="D1638" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1639">
@@ -33225,7 +33225,7 @@
         </is>
       </c>
       <c r="D1639" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1640">
@@ -33245,7 +33245,7 @@
         </is>
       </c>
       <c r="D1640" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1641">
@@ -33365,7 +33365,7 @@
         </is>
       </c>
       <c r="D1646" t="n">
-        <v>7464</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="1647">
@@ -33385,7 +33385,7 @@
         </is>
       </c>
       <c r="D1647" t="n">
-        <v>1033</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1648">
@@ -33425,7 +33425,7 @@
         </is>
       </c>
       <c r="D1649" t="n">
-        <v>465</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1650">
@@ -33445,7 +33445,7 @@
         </is>
       </c>
       <c r="D1650" t="n">
-        <v>465</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1651">
@@ -33485,7 +33485,7 @@
         </is>
       </c>
       <c r="D1652" t="n">
-        <v>2478</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="1653">
@@ -33505,7 +33505,7 @@
         </is>
       </c>
       <c r="D1653" t="n">
-        <v>2693</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="1654">
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D1654" t="n">
-        <v>10310</v>
+        <v>11135</v>
       </c>
     </row>
     <row r="1655">
@@ -33545,7 +33545,7 @@
         </is>
       </c>
       <c r="D1655" t="n">
-        <v>10923</v>
+        <v>11798</v>
       </c>
     </row>
     <row r="1656">
@@ -34045,7 +34045,7 @@
         </is>
       </c>
       <c r="D1680" t="n">
-        <v>1867</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1681">
@@ -34065,7 +34065,7 @@
         </is>
       </c>
       <c r="D1681" t="n">
-        <v>1141</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1682">
@@ -34085,7 +34085,7 @@
         </is>
       </c>
       <c r="D1682" t="n">
-        <v>1465</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1683">
@@ -34105,7 +34105,7 @@
         </is>
       </c>
       <c r="D1683" t="n">
-        <v>1356</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1684">
@@ -34145,7 +34145,7 @@
         </is>
       </c>
       <c r="D1685" t="n">
-        <v>544</v>
+        <v>594</v>
       </c>
     </row>
     <row r="1686">
@@ -34165,7 +34165,7 @@
         </is>
       </c>
       <c r="D1686" t="n">
-        <v>2276</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1687">
@@ -34185,7 +34185,7 @@
         </is>
       </c>
       <c r="D1687" t="n">
-        <v>2261</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1688">
@@ -34225,7 +34225,7 @@
         </is>
       </c>
       <c r="D1689" t="n">
-        <v>1969</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1690">
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D1690" t="n">
-        <v>1969</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1691">
@@ -34265,7 +34265,7 @@
         </is>
       </c>
       <c r="D1691" t="n">
-        <v>1766</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1692">
@@ -34285,7 +34285,7 @@
         </is>
       </c>
       <c r="D1692" t="n">
-        <v>465</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1693">
@@ -34305,7 +34305,7 @@
         </is>
       </c>
       <c r="D1693" t="n">
-        <v>681</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1694">
@@ -34325,7 +34325,7 @@
         </is>
       </c>
       <c r="D1694" t="n">
-        <v>564</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1695">
@@ -34345,7 +34345,7 @@
         </is>
       </c>
       <c r="D1695" t="n">
-        <v>720</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1696">
@@ -34365,7 +34365,7 @@
         </is>
       </c>
       <c r="D1696" t="n">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1697">
@@ -34385,7 +34385,7 @@
         </is>
       </c>
       <c r="D1697" t="n">
-        <v>329</v>
+        <v>359</v>
       </c>
     </row>
     <row r="1698">
@@ -34405,7 +34405,7 @@
         </is>
       </c>
       <c r="D1698" t="n">
-        <v>465</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1699">
@@ -34425,7 +34425,7 @@
         </is>
       </c>
       <c r="D1699" t="n">
-        <v>286</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1700">
@@ -34445,7 +34445,7 @@
         </is>
       </c>
       <c r="D1700" t="n">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1701">
@@ -34485,7 +34485,7 @@
         </is>
       </c>
       <c r="D1702" t="n">
-        <v>2962</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="1703">
@@ -34505,7 +34505,7 @@
         </is>
       </c>
       <c r="D1703" t="n">
-        <v>3631</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1704">
@@ -34525,7 +34525,7 @@
         </is>
       </c>
       <c r="D1704" t="n">
-        <v>4690</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="1705">
@@ -34665,7 +34665,7 @@
         </is>
       </c>
       <c r="D1711" t="n">
-        <v>12690</v>
+        <v>13707</v>
       </c>
     </row>
     <row r="1712">
@@ -34931,137 +34931,137 @@
     <row r="1725">
       <c r="A1725" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>5812</t>
         </is>
       </c>
       <c r="B1725" t="inlineStr">
         <is>
-          <t>8890000004052</t>
+          <t>8890000004069</t>
         </is>
       </c>
       <c r="C1725" t="inlineStr">
         <is>
-          <t>OG CEPILLO NEUMATICO OVAL GRANDE (405)</t>
+          <t>OG CEPILLO NEUMATICO CHICO (406)</t>
         </is>
       </c>
       <c r="D1725" t="n">
-        <v>1398</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1726">
       <c r="A1726" t="inlineStr">
         <is>
-          <t>5812</t>
+          <t>5813</t>
         </is>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>8890000004069</t>
+          <t>7798052376961</t>
         </is>
       </c>
       <c r="C1726" t="inlineStr">
         <is>
-          <t>OG CEPILLO NEUMATICO CHICO (406)</t>
+          <t>CH ESTUCHE N. 7 A VERDE</t>
         </is>
       </c>
       <c r="D1726" t="n">
-        <v>1169</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1727">
       <c r="A1727" t="inlineStr">
         <is>
-          <t>5813</t>
+          <t>5814</t>
         </is>
       </c>
       <c r="B1727" t="inlineStr">
         <is>
-          <t>7798052376961</t>
+          <t>7798052376978</t>
         </is>
       </c>
       <c r="C1727" t="inlineStr">
         <is>
-          <t>CH ESTUCHE N. 7 A VERDE</t>
+          <t>CH ESTUCHE N. 7 A AZUL</t>
         </is>
       </c>
       <c r="D1727" t="n">
-        <v>1021</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1728">
       <c r="A1728" t="inlineStr">
         <is>
-          <t>5814</t>
+          <t>5817</t>
         </is>
       </c>
       <c r="B1728" t="inlineStr">
         <is>
-          <t>7798052376978</t>
+          <t>7792366121736</t>
         </is>
       </c>
       <c r="C1728" t="inlineStr">
         <is>
-          <t>CH ESTUCHE N. 7 A AZUL</t>
+          <t>JERINGA NEOJET  3 cc S/A x 100 u</t>
         </is>
       </c>
       <c r="D1728" t="n">
-        <v>1021</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1729">
       <c r="A1729" t="inlineStr">
         <is>
-          <t>5817</t>
+          <t>5819</t>
         </is>
       </c>
       <c r="B1729" t="inlineStr">
         <is>
-          <t>7792366121736</t>
+          <t>7795800660129</t>
         </is>
       </c>
       <c r="C1729" t="inlineStr">
         <is>
-          <t>JERINGA NEOJET  3 cc S/A x 100 u</t>
+          <t>DW ESPEJO ACRÍLICO C| AUMENTO DE PIE (66012)</t>
         </is>
       </c>
       <c r="D1729" t="n">
-        <v>1148</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1730">
       <c r="A1730" t="inlineStr">
         <is>
-          <t>5819</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>7795800660129</t>
+          <t>7790940215109</t>
         </is>
       </c>
       <c r="C1730" t="inlineStr">
         <is>
-          <t>DW ESPEJO ACRÍLICO C| AUMENTO DE PIE (66012)</t>
+          <t>DON BABYLOOK TOALLITAS HUMEDAS MANZANILLA x 70 u</t>
         </is>
       </c>
       <c r="D1730" t="n">
-        <v>3533</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1731">
       <c r="A1731" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5824</t>
         </is>
       </c>
       <c r="B1731" t="inlineStr">
         <is>
-          <t>7790940215109</t>
+          <t>7790940215116</t>
         </is>
       </c>
       <c r="C1731" t="inlineStr">
         <is>
-          <t>DON BABYLOOK TOALLITAS HUMEDAS MANZANILLA x 70 u</t>
+          <t>DON BABYLOOK TOALLITAS HUMEDAS ALOE VERA x 70 u</t>
         </is>
       </c>
       <c r="D1731" t="n">
@@ -35071,97 +35071,97 @@
     <row r="1732">
       <c r="A1732" t="inlineStr">
         <is>
-          <t>5824</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t>7790940215116</t>
+          <t>7798052376060</t>
         </is>
       </c>
       <c r="C1732" t="inlineStr">
         <is>
-          <t>DON BABYLOOK TOALLITAS HUMEDAS ALOE VERA x 70 u</t>
+          <t>TENS.DIGITAL FUREY DE BRAZO LD572</t>
         </is>
       </c>
       <c r="D1732" t="n">
-        <v>436</v>
+        <v>13488</v>
       </c>
     </row>
     <row r="1733">
       <c r="A1733" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>7798052376060</t>
+          <t>7798052376077</t>
         </is>
       </c>
       <c r="C1733" t="inlineStr">
         <is>
-          <t>TENS.DIGITAL FUREY DE BRAZO LD572</t>
+          <t>TENS.DIGITAL FUREY DE MUÑECA LD752</t>
         </is>
       </c>
       <c r="D1733" t="n">
-        <v>10789</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="1734">
       <c r="A1734" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5827</t>
         </is>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
-          <t>7798052376077</t>
+          <t>7790000000171</t>
         </is>
       </c>
       <c r="C1734" t="inlineStr">
         <is>
-          <t>TENS.DIGITAL FUREY DE MUÑECA LD752</t>
+          <t>O2+ PINZA DE DEPILAR C/ PEINE FUCSIA (0171)</t>
         </is>
       </c>
       <c r="D1734" t="n">
-        <v>7243</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1735">
       <c r="A1735" t="inlineStr">
         <is>
-          <t>5827</t>
+          <t>5828</t>
         </is>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>7790000000171</t>
+          <t>7790000004247</t>
         </is>
       </c>
       <c r="C1735" t="inlineStr">
         <is>
-          <t>O2+ PINZA DE DEPILAR C/ PEINE FUCSIA (0171)</t>
+          <t>O2+ ESPONJA EXFOLIANTE KONJAC ROSA (4247)</t>
         </is>
       </c>
       <c r="D1735" t="n">
-        <v>915</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1736">
       <c r="A1736" t="inlineStr">
         <is>
-          <t>5828</t>
+          <t>5829</t>
         </is>
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>7790000004247</t>
+          <t>7790000004254</t>
         </is>
       </c>
       <c r="C1736" t="inlineStr">
         <is>
-          <t>O2+ ESPONJA EXFOLIANTE KONJAC ROSA (4247)</t>
+          <t>O2+ ESPONJA EXFOLIANTE KONJAC NEGRA (4254)</t>
         </is>
       </c>
       <c r="D1736" t="n">
@@ -35171,337 +35171,337 @@
     <row r="1737">
       <c r="A1737" t="inlineStr">
         <is>
-          <t>5829</t>
+          <t>5830</t>
         </is>
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>7790000004254</t>
+          <t>8890000002003</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr">
         <is>
-          <t>O2+ ESPONJA EXFOLIANTE KONJAC NEGRA (4254)</t>
+          <t>OG CEPILLO NEUMATICO DELFIN CHICO (200)</t>
         </is>
       </c>
       <c r="D1737" t="n">
-        <v>838</v>
+        <v>520</v>
       </c>
     </row>
     <row r="1738">
       <c r="A1738" t="inlineStr">
         <is>
-          <t>5830</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="B1738" t="inlineStr">
         <is>
-          <t>8890000002003</t>
+          <t>7798052376985</t>
         </is>
       </c>
       <c r="C1738" t="inlineStr">
         <is>
-          <t>OG CEPILLO NEUMATICO DELFIN CHICO (200)</t>
+          <t>CH CAMBIADOR BALLENA</t>
         </is>
       </c>
       <c r="D1738" t="n">
-        <v>496</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1739">
       <c r="A1739" t="inlineStr">
         <is>
-          <t>5831</t>
+          <t>5832</t>
         </is>
       </c>
       <c r="B1739" t="inlineStr">
         <is>
-          <t>7798052376985</t>
+          <t>7798052376992</t>
         </is>
       </c>
       <c r="C1739" t="inlineStr">
         <is>
-          <t>CH CAMBIADOR BALLENA</t>
+          <t>CH CAMBIADOR PULPO</t>
         </is>
       </c>
       <c r="D1739" t="n">
-        <v>927</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1740">
       <c r="A1740" t="inlineStr">
         <is>
-          <t>5832</t>
+          <t>5833</t>
         </is>
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>7798052376992</t>
+          <t>7798052377005</t>
         </is>
       </c>
       <c r="C1740" t="inlineStr">
         <is>
-          <t>CH CAMBIADOR PULPO</t>
+          <t>CH CAMBIADOR PEZ CON MOÑO</t>
         </is>
       </c>
       <c r="D1740" t="n">
-        <v>927</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1741">
       <c r="A1741" t="inlineStr">
         <is>
-          <t>5833</t>
+          <t>5838</t>
         </is>
       </c>
       <c r="B1741" t="inlineStr">
         <is>
-          <t>7798052377005</t>
+          <t>7791274200199</t>
         </is>
       </c>
       <c r="C1741" t="inlineStr">
         <is>
-          <t>CH CAMBIADOR PEZ CON MOÑO</t>
+          <t>ALG SET DE REGALO CREMA + SHOWER GEL</t>
         </is>
       </c>
       <c r="D1741" t="n">
-        <v>927</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1742">
       <c r="A1742" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B1742" t="inlineStr">
         <is>
-          <t>7791274200199</t>
+          <t>7791274198892</t>
         </is>
       </c>
       <c r="C1742" t="inlineStr">
         <is>
-          <t>ALG SET DE REGALO CREMA + SHOWER GEL</t>
+          <t>ALG COCOA BEACH PROTECTOR SOLAR FAMILIAR FPS 30 x 400 ml</t>
         </is>
       </c>
       <c r="D1742" t="n">
-        <v>842</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1743">
       <c r="A1743" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5840</t>
         </is>
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>7791274198892</t>
+          <t>7791274199424</t>
         </is>
       </c>
       <c r="C1743" t="inlineStr">
         <is>
-          <t>ALG COCOA BEACH PROTECTOR SOLAR FAMILIAR FPS 30 x 400 ml</t>
+          <t>ALG COCOA BEACH CREMA AUTOBRONCEANTE x 130 ml</t>
         </is>
       </c>
       <c r="D1743" t="n">
-        <v>1736</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1744">
       <c r="A1744" t="inlineStr">
         <is>
-          <t>5840</t>
+          <t>5841</t>
         </is>
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>7791274199424</t>
+          <t>7791274197789</t>
         </is>
       </c>
       <c r="C1744" t="inlineStr">
         <is>
-          <t>ALG COCOA BEACH CREMA AUTOBRONCEANTE x 130 ml</t>
+          <t>ALG COCOA BEACH PROTECTOR SOLAR FPS 50 x 130 ml</t>
         </is>
       </c>
       <c r="D1744" t="n">
-        <v>1168</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1745">
       <c r="A1745" t="inlineStr">
         <is>
-          <t>5841</t>
+          <t>5842</t>
         </is>
       </c>
       <c r="B1745" t="inlineStr">
         <is>
-          <t>7791274197789</t>
+          <t>7791274200625</t>
         </is>
       </c>
       <c r="C1745" t="inlineStr">
         <is>
-          <t>ALG COCOA BEACH PROTECTOR SOLAR FPS 50 x 130 ml</t>
+          <t>ALG COCOA BEACH PROTECTOR SOLAR SPRAY INVISIBLE FPS50 x 120 ml</t>
         </is>
       </c>
       <c r="D1745" t="n">
-        <v>2013</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1746">
       <c r="A1746" t="inlineStr">
         <is>
-          <t>5842</t>
+          <t>5843</t>
         </is>
       </c>
       <c r="B1746" t="inlineStr">
         <is>
-          <t>7791274200625</t>
+          <t>7792366011314</t>
         </is>
       </c>
       <c r="C1746" t="inlineStr">
         <is>
-          <t>ALG COCOA BEACH PROTECTOR SOLAR SPRAY INVISIBLE FPS50 x 120 ml</t>
+          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°16 BALON 5</t>
         </is>
       </c>
       <c r="D1746" t="n">
-        <v>1872</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1747">
       <c r="A1747" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>7792366011314</t>
+          <t>7792366011321</t>
         </is>
       </c>
       <c r="C1747" t="inlineStr">
         <is>
-          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°16 BALON 5</t>
+          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°18 BALON 5</t>
         </is>
       </c>
       <c r="D1747" t="n">
-        <v>206</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1748">
       <c r="A1748" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t>7792366011321</t>
+          <t>7792366011307</t>
         </is>
       </c>
       <c r="C1748" t="inlineStr">
         <is>
-          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°18 BALON 5</t>
+          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°14 BALON 5</t>
         </is>
       </c>
       <c r="D1748" t="n">
-        <v>206</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" t="inlineStr">
         <is>
-          <t>5845</t>
+          <t>5846</t>
         </is>
       </c>
       <c r="B1749" t="inlineStr">
         <is>
-          <t>7792366011307</t>
+          <t>7792366011338</t>
         </is>
       </c>
       <c r="C1749" t="inlineStr">
         <is>
-          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°14 BALON 5</t>
+          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°20 BALON 5</t>
         </is>
       </c>
       <c r="D1749" t="n">
-        <v>206</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" t="inlineStr">
         <is>
-          <t>5846</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>7792366011338</t>
+          <t>7792366011345</t>
         </is>
       </c>
       <c r="C1750" t="inlineStr">
         <is>
-          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°20 BALON 5</t>
+          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°22 BALON 5</t>
         </is>
       </c>
       <c r="D1750" t="n">
-        <v>206</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5849</t>
         </is>
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>7792366011345</t>
+          <t>7792366013673</t>
         </is>
       </c>
       <c r="C1751" t="inlineStr">
         <is>
-          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°22 BALON 5</t>
+          <t>ELECTRODO DEXAL BOLSA x 50 UNIDADES</t>
         </is>
       </c>
       <c r="D1751" t="n">
-        <v>206</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1752">
       <c r="A1752" t="inlineStr">
         <is>
-          <t>5849</t>
+          <t>5852</t>
         </is>
       </c>
       <c r="B1752" t="inlineStr">
         <is>
-          <t>7792366013673</t>
+          <t>7798160835282</t>
         </is>
       </c>
       <c r="C1752" t="inlineStr">
         <is>
-          <t>ELECTRODO DEXAL BOLSA x 50 UNIDADES</t>
+          <t>MAC EAU DE PARFUM LAS OREIROS DOLCE VITA x 100 ml</t>
         </is>
       </c>
       <c r="D1752" t="n">
-        <v>1312</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" t="inlineStr">
         <is>
-          <t>5852</t>
+          <t>5853</t>
         </is>
       </c>
       <c r="B1753" t="inlineStr">
         <is>
-          <t>7798160835282</t>
+          <t>7798160835275</t>
         </is>
       </c>
       <c r="C1753" t="inlineStr">
         <is>
-          <t>MAC EAU DE PARFUM LAS OREIROS DOLCE VITA x 100 ml</t>
+          <t>MAC EAU DE PARFUM LAS OREIROS RED LIPS x 100 ml</t>
         </is>
       </c>
       <c r="D1753" t="n">
@@ -35511,637 +35511,637 @@
     <row r="1754">
       <c r="A1754" t="inlineStr">
         <is>
-          <t>5853</t>
+          <t>5857</t>
         </is>
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t>7798160835275</t>
+          <t>7798124240992</t>
         </is>
       </c>
       <c r="C1754" t="inlineStr">
         <is>
-          <t>MAC EAU DE PARFUM LAS OREIROS RED LIPS x 100 ml</t>
+          <t>ACIDO BORICO DROGAL SOBRE DE 25gr. x 25u</t>
         </is>
       </c>
       <c r="D1754" t="n">
-        <v>6374</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1755">
       <c r="A1755" t="inlineStr">
         <is>
-          <t>5857</t>
+          <t>5858</t>
         </is>
       </c>
       <c r="B1755" t="inlineStr">
         <is>
-          <t>7798124240992</t>
+          <t>7798026344026</t>
         </is>
       </c>
       <c r="C1755" t="inlineStr">
         <is>
-          <t>ACIDO BORICO DROGAL SOBRE DE 25gr. x 25u</t>
+          <t>HIPO APOSITO PROTECTOR OUCH! x 10 unid.</t>
         </is>
       </c>
       <c r="D1755" t="n">
-        <v>2157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1756">
       <c r="A1756" t="inlineStr">
         <is>
-          <t>5858</t>
+          <t>5859</t>
         </is>
       </c>
       <c r="B1756" t="inlineStr">
         <is>
-          <t>7798026344026</t>
+          <t>7798026343500</t>
         </is>
       </c>
       <c r="C1756" t="inlineStr">
         <is>
-          <t>HIPO APOSITO PROTECTOR OUCH! x 10 unid.</t>
+          <t>HIPO APOSITO TRANSP. FILM+PAD 10x10cm x 20 unid.</t>
         </is>
       </c>
       <c r="D1756" t="n">
-        <v>125</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="B1757" t="inlineStr">
         <is>
-          <t>7798026343500</t>
+          <t>7798026344989</t>
         </is>
       </c>
       <c r="C1757" t="inlineStr">
         <is>
-          <t>HIPO APOSITO TRANSP. FILM+PAD 10x10cm x 20 unid.</t>
+          <t>HIPO AG+ APOSITO ANTIBACTERIAL x 30 unid.</t>
         </is>
       </c>
       <c r="D1757" t="n">
-        <v>2115</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1758">
       <c r="A1758" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>5861</t>
         </is>
       </c>
       <c r="B1758" t="inlineStr">
         <is>
-          <t>7798026344989</t>
+          <t>7798026343104</t>
         </is>
       </c>
       <c r="C1758" t="inlineStr">
         <is>
-          <t>HIPO AG+ APOSITO ANTIBACTERIAL x 30 unid.</t>
+          <t>HIPO APOSITO FILM  6cm x 7cm x 3 unid</t>
         </is>
       </c>
       <c r="D1758" t="n">
-        <v>505</v>
+        <v>407</v>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="inlineStr">
         <is>
-          <t>5861</t>
+          <t>5862</t>
         </is>
       </c>
       <c r="B1759" t="inlineStr">
         <is>
-          <t>7798026343104</t>
+          <t>7798026340028</t>
         </is>
       </c>
       <c r="C1759" t="inlineStr">
         <is>
-          <t>HIPO APOSITO FILM  6cm x 7cm x 3 unid</t>
+          <t>HIPO PARCHE OCULAR PEDIATRICO  x 5 u</t>
         </is>
       </c>
       <c r="D1759" t="n">
-        <v>407</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="inlineStr">
         <is>
-          <t>5862</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="B1760" t="inlineStr">
         <is>
-          <t>7798026340028</t>
+          <t>7798026340011</t>
         </is>
       </c>
       <c r="C1760" t="inlineStr">
         <is>
-          <t>HIPO PARCHE OCULAR PEDIATRICO  x 5 u</t>
+          <t>HIPO PARCHE OCULAR ADULTO x 5 u</t>
         </is>
       </c>
       <c r="D1760" t="n">
-        <v>261</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1761">
       <c r="A1761" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="B1761" t="inlineStr">
         <is>
-          <t>7798026340011</t>
+          <t>7798126724766</t>
         </is>
       </c>
       <c r="C1761" t="inlineStr">
         <is>
-          <t>HIPO PARCHE OCULAR ADULTO x 5 u</t>
+          <t>MB VEGANOS BANANA Y KIWI x 20 gr.</t>
         </is>
       </c>
       <c r="D1761" t="n">
-        <v>317</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>5865</t>
         </is>
       </c>
       <c r="B1762" t="inlineStr">
         <is>
-          <t>7798126724766</t>
+          <t>7798126724780</t>
         </is>
       </c>
       <c r="C1762" t="inlineStr">
         <is>
-          <t>MB VEGANOS BANANA Y KIWI x 20 gr.</t>
+          <t>MB VEGANOS BANANA Y KIWI DOYPACK x 250 grs.</t>
         </is>
       </c>
       <c r="D1762" t="n">
-        <v>142</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="inlineStr">
         <is>
-          <t>5865</t>
+          <t>5866</t>
         </is>
       </c>
       <c r="B1763" t="inlineStr">
         <is>
-          <t>7798126724780</t>
+          <t>7798126724797</t>
         </is>
       </c>
       <c r="C1763" t="inlineStr">
         <is>
-          <t>MB VEGANOS BANANA Y KIWI DOYPACK x 250 grs.</t>
+          <t>MB VEGANOS NARANJA Y PAPAYA x 20 gr.</t>
         </is>
       </c>
       <c r="D1763" t="n">
-        <v>744</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="inlineStr">
         <is>
-          <t>5866</t>
+          <t>5867</t>
         </is>
       </c>
       <c r="B1764" t="inlineStr">
         <is>
-          <t>7798126724797</t>
+          <t>7798126724810</t>
         </is>
       </c>
       <c r="C1764" t="inlineStr">
         <is>
-          <t>MB VEGANOS NARANJA Y PAPAYA x 20 gr.</t>
+          <t>MB VEGANOS NARANJA Y PAPAYA DOY PACK x 250 gr.</t>
         </is>
       </c>
       <c r="D1764" t="n">
-        <v>142</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="inlineStr">
         <is>
-          <t>5867</t>
+          <t>5868</t>
         </is>
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>7798126724810</t>
+          <t>7798126724827</t>
         </is>
       </c>
       <c r="C1765" t="inlineStr">
         <is>
-          <t>MB VEGANOS NARANJA Y PAPAYA DOY PACK x 250 gr.</t>
+          <t>MB VEGANOS MANGO Y CAFE VERDE x 20 gr.</t>
         </is>
       </c>
       <c r="D1765" t="n">
-        <v>744</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1766">
       <c r="A1766" t="inlineStr">
         <is>
-          <t>5868</t>
+          <t>5869</t>
         </is>
       </c>
       <c r="B1766" t="inlineStr">
         <is>
-          <t>7798126724827</t>
+          <t>7798126724841</t>
         </is>
       </c>
       <c r="C1766" t="inlineStr">
         <is>
-          <t>MB VEGANOS MANGO Y CAFE VERDE x 20 gr.</t>
+          <t>MB VEGANOS MANGO Y CAFE VERDE DOYPACK x 250 gr.</t>
         </is>
       </c>
       <c r="D1766" t="n">
-        <v>142</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="inlineStr">
         <is>
-          <t>5869</t>
+          <t>5870</t>
         </is>
       </c>
       <c r="B1767" t="inlineStr">
         <is>
-          <t>7798126724841</t>
+          <t>7798028883714</t>
         </is>
       </c>
       <c r="C1767" t="inlineStr">
         <is>
-          <t>MB VEGANOS MANGO Y CAFE VERDE DOYPACK x 250 gr.</t>
+          <t>ANDADOR ROLLATOR CON 4 RUEDAS SILFAB A3022G</t>
         </is>
       </c>
       <c r="D1767" t="n">
-        <v>744</v>
+        <v>52078</v>
       </c>
     </row>
     <row r="1768">
       <c r="A1768" t="inlineStr">
         <is>
-          <t>5870</t>
+          <t>5871</t>
         </is>
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>7798028883714</t>
+          <t>7798052377012</t>
         </is>
       </c>
       <c r="C1768" t="inlineStr">
         <is>
-          <t>ANDADOR ROLLATOR CON 4 RUEDAS SILFAB A3022G</t>
+          <t>CH ESTUCHE N. 9 F</t>
         </is>
       </c>
       <c r="D1768" t="n">
-        <v>48220</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" t="inlineStr">
         <is>
-          <t>5871</t>
+          <t>5872</t>
         </is>
       </c>
       <c r="B1769" t="inlineStr">
         <is>
-          <t>7798052377012</t>
+          <t>7798052377029</t>
         </is>
       </c>
       <c r="C1769" t="inlineStr">
         <is>
-          <t>CH ESTUCHE N. 9 F</t>
+          <t>CH ESTUCHE N.21 B</t>
         </is>
       </c>
       <c r="D1769" t="n">
-        <v>2362</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="1770">
       <c r="A1770" t="inlineStr">
         <is>
-          <t>5872</t>
+          <t>5873</t>
         </is>
       </c>
       <c r="B1770" t="inlineStr">
         <is>
-          <t>7798052377029</t>
+          <t>7794922543242</t>
         </is>
       </c>
       <c r="C1770" t="inlineStr">
         <is>
-          <t>CH ESTUCHE N.21 B</t>
+          <t>JMY ESCOFINA PALETA</t>
         </is>
       </c>
       <c r="D1770" t="n">
-        <v>3354</v>
+        <v>696</v>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" t="inlineStr">
         <is>
-          <t>5873</t>
+          <t>5878</t>
         </is>
       </c>
       <c r="B1771" t="inlineStr">
         <is>
-          <t>7794922543242</t>
+          <t>8890000004311</t>
         </is>
       </c>
       <c r="C1771" t="inlineStr">
         <is>
-          <t>JMY ESCOFINA PALETA</t>
+          <t>OG CEPILLO NEUMATICO CHICO (431)</t>
         </is>
       </c>
       <c r="D1771" t="n">
-        <v>696</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" t="inlineStr">
         <is>
-          <t>5878</t>
+          <t>5882</t>
         </is>
       </c>
       <c r="B1772" t="inlineStr">
         <is>
-          <t>8890000004311</t>
+          <t>7798052370938</t>
         </is>
       </c>
       <c r="C1772" t="inlineStr">
         <is>
-          <t>OG CEPILLO NEUMATICO CHICO (431)</t>
+          <t>TERMOMETRO DIGITAL FUREY DT/K11B</t>
         </is>
       </c>
       <c r="D1772" t="n">
-        <v>1127</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1773">
       <c r="A1773" t="inlineStr">
         <is>
-          <t>5882</t>
+          <t>5886</t>
         </is>
       </c>
       <c r="B1773" t="inlineStr">
         <is>
-          <t>7798052370938</t>
+          <t>7798174261169</t>
         </is>
       </c>
       <c r="C1773" t="inlineStr">
         <is>
-          <t>TERMOMETRO DIGITAL FUREY DT/K11B</t>
+          <t>EUDA MAGNESIO QELATO 100mg x 50 cap.</t>
         </is>
       </c>
       <c r="D1773" t="n">
-        <v>655</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1774">
       <c r="A1774" t="inlineStr">
         <is>
-          <t>5886</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B1774" t="inlineStr">
         <is>
-          <t>7798174261169</t>
+          <t>7798174261145</t>
         </is>
       </c>
       <c r="C1774" t="inlineStr">
         <is>
-          <t>EUDA MAGNESIO QELATO 100mg x 50 cap.</t>
+          <t>EUDA BIOTINA 2000mcg x 90 comp.</t>
         </is>
       </c>
       <c r="D1774" t="n">
-        <v>1438</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1775">
       <c r="A1775" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5888</t>
         </is>
       </c>
       <c r="B1775" t="inlineStr">
         <is>
-          <t>7798174261145</t>
+          <t>7798174261138</t>
         </is>
       </c>
       <c r="C1775" t="inlineStr">
         <is>
-          <t>EUDA BIOTINA 2000mcg x 90 comp.</t>
+          <t>EUDA VITAMINA B12 500mcg x 90 comp.</t>
         </is>
       </c>
       <c r="D1775" t="n">
-        <v>1204</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1776">
       <c r="A1776" t="inlineStr">
         <is>
-          <t>5888</t>
+          <t>5889</t>
         </is>
       </c>
       <c r="B1776" t="inlineStr">
         <is>
-          <t>7798174261138</t>
+          <t>7798174261176</t>
         </is>
       </c>
       <c r="C1776" t="inlineStr">
         <is>
-          <t>EUDA VITAMINA B12 500mcg x 90 comp.</t>
+          <t>EUDA VITAMINA C 500mg x 50 cap.</t>
         </is>
       </c>
       <c r="D1776" t="n">
-        <v>1196</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1777">
       <c r="A1777" t="inlineStr">
         <is>
-          <t>5889</t>
+          <t>5890</t>
         </is>
       </c>
       <c r="B1777" t="inlineStr">
         <is>
-          <t>7798174261176</t>
+          <t>7798174261183</t>
         </is>
       </c>
       <c r="C1777" t="inlineStr">
         <is>
-          <t>EUDA VITAMINA C 500mg x 50 cap.</t>
+          <t>EUDA VITAMINA D3 2000UI x 90 comp.</t>
         </is>
       </c>
       <c r="D1777" t="n">
-        <v>1250</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1778">
       <c r="A1778" t="inlineStr">
         <is>
-          <t>5890</t>
+          <t>5891</t>
         </is>
       </c>
       <c r="B1778" t="inlineStr">
         <is>
-          <t>7798174261183</t>
+          <t>7798174261190</t>
         </is>
       </c>
       <c r="C1778" t="inlineStr">
         <is>
-          <t>EUDA VITAMINA D3 2000UI x 90 comp.</t>
+          <t>EUDA VITAMINA E 400UI x 50 cap.</t>
         </is>
       </c>
       <c r="D1778" t="n">
-        <v>1128</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1779">
       <c r="A1779" t="inlineStr">
         <is>
-          <t>5891</t>
+          <t>5892</t>
         </is>
       </c>
       <c r="B1779" t="inlineStr">
         <is>
-          <t>7798174261190</t>
+          <t>7798174261206</t>
         </is>
       </c>
       <c r="C1779" t="inlineStr">
         <is>
-          <t>EUDA VITAMINA E 400UI x 50 cap.</t>
+          <t>EUDA ZINC QELATO 30mg x 50 cap.</t>
         </is>
       </c>
       <c r="D1779" t="n">
-        <v>1447</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1780">
       <c r="A1780" t="inlineStr">
         <is>
-          <t>5892</t>
+          <t>5893</t>
         </is>
       </c>
       <c r="B1780" t="inlineStr">
         <is>
-          <t>7798174261206</t>
+          <t>7798174261152</t>
         </is>
       </c>
       <c r="C1780" t="inlineStr">
         <is>
-          <t>EUDA ZINC QELATO 30mg x 50 cap.</t>
+          <t>EUDA COMPLEJO VITAMINICO B x 90 comp.</t>
         </is>
       </c>
       <c r="D1780" t="n">
-        <v>1347</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1781">
       <c r="A1781" t="inlineStr">
         <is>
-          <t>5893</t>
+          <t>5894</t>
         </is>
       </c>
       <c r="B1781" t="inlineStr">
         <is>
-          <t>7798174261152</t>
+          <t>7798174261237</t>
         </is>
       </c>
       <c r="C1781" t="inlineStr">
         <is>
-          <t>EUDA COMPLEJO VITAMINICO B x 90 comp.</t>
+          <t>EUDA COLAGENO HIDROLIZADO 100% PURO x 250 g.</t>
         </is>
       </c>
       <c r="D1781" t="n">
-        <v>1215</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1782">
       <c r="A1782" t="inlineStr">
         <is>
-          <t>5894</t>
+          <t>5895</t>
         </is>
       </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>7798174261237</t>
+          <t>7798174261220</t>
         </is>
       </c>
       <c r="C1782" t="inlineStr">
         <is>
-          <t>EUDA COLAGENO HIDROLIZADO 100% PURO x 250 g.</t>
+          <t>EUDA COLAGENO HIDROLIZADO FLEX x 250 g.</t>
         </is>
       </c>
       <c r="D1782" t="n">
-        <v>2463</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" t="inlineStr">
         <is>
-          <t>5895</t>
+          <t>5896</t>
         </is>
       </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>7798174261220</t>
+          <t>7798174261213</t>
         </is>
       </c>
       <c r="C1783" t="inlineStr">
         <is>
-          <t>EUDA COLAGENO HIDROLIZADO FLEX x 250 g.</t>
+          <t>EUDA COLAGENO HIDROLIZADO BEAUTY x 250 g.</t>
         </is>
       </c>
       <c r="D1783" t="n">
-        <v>2623</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" t="inlineStr">
         <is>
-          <t>5896</t>
+          <t>5901</t>
         </is>
       </c>
       <c r="B1784" t="inlineStr">
         <is>
-          <t>7798174261213</t>
+          <t>7798327347788</t>
         </is>
       </c>
       <c r="C1784" t="inlineStr">
         <is>
-          <t>EUDA COLAGENO HIDROLIZADO BEAUTY x 250 g.</t>
+          <t>JAC DELINEADOR EN FIBRA PARA OJOS NEGRO 690-001</t>
         </is>
       </c>
       <c r="D1784" t="n">
-        <v>2760</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" t="inlineStr">
         <is>
-          <t>5901</t>
+          <t>5902</t>
         </is>
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>7798327347788</t>
+          <t>7798327347795</t>
         </is>
       </c>
       <c r="C1785" t="inlineStr">
         <is>
-          <t>JAC DELINEADOR EN FIBRA PARA OJOS NEGRO 690-001</t>
+          <t>JAC DELINEADOR EN FIBRA PARA OJOS BLANCO 690-002</t>
         </is>
       </c>
       <c r="D1785" t="n">
@@ -36151,17 +36151,17 @@
     <row r="1786">
       <c r="A1786" t="inlineStr">
         <is>
-          <t>5902</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>7798327347795</t>
+          <t>7798327347801</t>
         </is>
       </c>
       <c r="C1786" t="inlineStr">
         <is>
-          <t>JAC DELINEADOR EN FIBRA PARA OJOS BLANCO 690-002</t>
+          <t>JAC DELINEADOR EN FIBRA PARA OJOS LILA 690-003</t>
         </is>
       </c>
       <c r="D1786" t="n">
@@ -36171,17 +36171,17 @@
     <row r="1787">
       <c r="A1787" t="inlineStr">
         <is>
-          <t>5903</t>
+          <t>5904</t>
         </is>
       </c>
       <c r="B1787" t="inlineStr">
         <is>
-          <t>7798327347801</t>
+          <t>7798327347818</t>
         </is>
       </c>
       <c r="C1787" t="inlineStr">
         <is>
-          <t>JAC DELINEADOR EN FIBRA PARA OJOS LILA 690-003</t>
+          <t>JAC DELINEADOR EN FIBRA PARA OJOS CELESTE 690-004</t>
         </is>
       </c>
       <c r="D1787" t="n">
@@ -36191,17 +36191,17 @@
     <row r="1788">
       <c r="A1788" t="inlineStr">
         <is>
-          <t>5904</t>
+          <t>5905</t>
         </is>
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>7798327347818</t>
+          <t>7798327347825</t>
         </is>
       </c>
       <c r="C1788" t="inlineStr">
         <is>
-          <t>JAC DELINEADOR EN FIBRA PARA OJOS CELESTE 690-004</t>
+          <t>JAC DELINEADOR EN FIBRA PARA OJOS VERDE 690-005</t>
         </is>
       </c>
       <c r="D1788" t="n">
@@ -36211,177 +36211,177 @@
     <row r="1789">
       <c r="A1789" t="inlineStr">
         <is>
-          <t>5905</t>
+          <t>5909</t>
         </is>
       </c>
       <c r="B1789" t="inlineStr">
         <is>
-          <t>7798327347825</t>
+          <t>7790000004056</t>
         </is>
       </c>
       <c r="C1789" t="inlineStr">
         <is>
-          <t>JAC DELINEADOR EN FIBRA PARA OJOS VERDE 690-005</t>
+          <t>O2+ ESPONJA MAQUILLAJE BEAUTY BLENDER ELIPTICA FUCSIA (4056)</t>
         </is>
       </c>
       <c r="D1789" t="n">
-        <v>1475</v>
+        <v>519</v>
       </c>
     </row>
     <row r="1790">
       <c r="A1790" t="inlineStr">
         <is>
-          <t>5909</t>
+          <t>5910</t>
         </is>
       </c>
       <c r="B1790" t="inlineStr">
         <is>
-          <t>7790000004056</t>
+          <t>7798068820380</t>
         </is>
       </c>
       <c r="C1790" t="inlineStr">
         <is>
-          <t>O2+ ESPONJA MAQUILLAJE BEAUTY BLENDER ELIPTICA FUCSIA (4056)</t>
+          <t>CREMA OXIGENADA SANADROG 20 v 100 cc</t>
         </is>
       </c>
       <c r="D1790" t="n">
-        <v>519</v>
+        <v>178</v>
       </c>
     </row>
     <row r="1791">
       <c r="A1791" t="inlineStr">
         <is>
-          <t>5910</t>
+          <t>5911</t>
         </is>
       </c>
       <c r="B1791" t="inlineStr">
         <is>
-          <t>7798068820380</t>
+          <t>7798068820397</t>
         </is>
       </c>
       <c r="C1791" t="inlineStr">
         <is>
-          <t>CREMA OXIGENADA SANADROG 20 v 100 cc</t>
+          <t>CREMA OXIGENADA SANADROG 30 v 100 cc</t>
         </is>
       </c>
       <c r="D1791" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="1792">
       <c r="A1792" t="inlineStr">
         <is>
-          <t>5911</t>
+          <t>5912</t>
         </is>
       </c>
       <c r="B1792" t="inlineStr">
         <is>
-          <t>7798068820397</t>
+          <t>7798068824852</t>
         </is>
       </c>
       <c r="C1792" t="inlineStr">
         <is>
-          <t>CREMA OXIGENADA SANADROG 30 v 100 cc</t>
+          <t>ACEITE DE RICINO DASIPA x 30 cc</t>
         </is>
       </c>
       <c r="D1792" t="n">
-        <v>166</v>
+        <v>337</v>
       </c>
     </row>
     <row r="1793">
       <c r="A1793" t="inlineStr">
         <is>
-          <t>5912</t>
+          <t>5913</t>
         </is>
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t>7798068824852</t>
+          <t>7798068820113</t>
         </is>
       </c>
       <c r="C1793" t="inlineStr">
         <is>
-          <t>ACEITE DE RICINO DASIPA x 30 cc</t>
+          <t>BICARBONATO DE SODIO SOBRE SANADROG x 25gr.x 25u</t>
         </is>
       </c>
       <c r="D1793" t="n">
-        <v>304</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1794">
       <c r="A1794" t="inlineStr">
         <is>
-          <t>5913</t>
+          <t>5914</t>
         </is>
       </c>
       <c r="B1794" t="inlineStr">
         <is>
-          <t>7798068820113</t>
+          <t>7798068820533</t>
         </is>
       </c>
       <c r="C1794" t="inlineStr">
         <is>
-          <t>BICARBONATO DE SODIO SOBRE SANADROG x 25gr.x 25u</t>
+          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 100 gr.</t>
         </is>
       </c>
       <c r="D1794" t="n">
-        <v>2034</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1795">
       <c r="A1795" t="inlineStr">
         <is>
-          <t>5914</t>
+          <t>5915</t>
         </is>
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>7798068820533</t>
+          <t>7798068820373</t>
         </is>
       </c>
       <c r="C1795" t="inlineStr">
         <is>
-          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 100 gr.</t>
+          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 250 gr.</t>
         </is>
       </c>
       <c r="D1795" t="n">
-        <v>248</v>
+        <v>520</v>
       </c>
     </row>
     <row r="1796">
       <c r="A1796" t="inlineStr">
         <is>
-          <t>5915</t>
+          <t>5916</t>
         </is>
       </c>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>7798068820373</t>
+          <t>0652217763027</t>
         </is>
       </c>
       <c r="C1796" t="inlineStr">
         <is>
-          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 250 gr.</t>
+          <t>NEBU A PISTON MAVERICK 403E</t>
         </is>
       </c>
       <c r="D1796" t="n">
-        <v>465</v>
+        <v>12753</v>
       </c>
     </row>
     <row r="1797">
       <c r="A1797" t="inlineStr">
         <is>
-          <t>5916</t>
+          <t>5917</t>
         </is>
       </c>
       <c r="B1797" t="inlineStr">
         <is>
-          <t>0652217763027</t>
+          <t>0652217700398</t>
         </is>
       </c>
       <c r="C1797" t="inlineStr">
         <is>
-          <t>NEBU A PISTON MAVERICK 403E</t>
+          <t>NEBU A PISTON MAVERICK 403D</t>
         </is>
       </c>
       <c r="D1797" t="n">
@@ -36391,317 +36391,317 @@
     <row r="1798">
       <c r="A1798" t="inlineStr">
         <is>
-          <t>5917</t>
+          <t>5918</t>
         </is>
       </c>
       <c r="B1798" t="inlineStr">
         <is>
-          <t>0652217700398</t>
+          <t>0652217025804</t>
         </is>
       </c>
       <c r="C1798" t="inlineStr">
         <is>
-          <t>NEBU A PISTON MAVERICK 403D</t>
+          <t>NEBU ULTRASONICO MESH PORTATIL MAVERICK NE-M01L</t>
         </is>
       </c>
       <c r="D1798" t="n">
-        <v>12753</v>
+        <v>21224</v>
       </c>
     </row>
     <row r="1799">
       <c r="A1799" t="inlineStr">
         <is>
-          <t>5918</t>
+          <t>5919</t>
         </is>
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>0652217025804</t>
+          <t>0652217523539</t>
         </is>
       </c>
       <c r="C1799" t="inlineStr">
         <is>
-          <t>NEBU ULTRASONICO MESH PORTATIL MAVERICK NE-M01L</t>
+          <t>REP NEB PISTON KIT DE MASCARAS MAVERICK</t>
         </is>
       </c>
       <c r="D1799" t="n">
-        <v>21224</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1800">
       <c r="A1800" t="inlineStr">
         <is>
-          <t>5919</t>
+          <t>5920</t>
         </is>
       </c>
       <c r="B1800" t="inlineStr">
         <is>
-          <t>0652217523539</t>
+          <t>0652217609448</t>
         </is>
       </c>
       <c r="C1800" t="inlineStr">
         <is>
-          <t>REP NEB PISTON KIT DE MASCARAS MAVERICK</t>
+          <t>REP NEB PISTON AMPOLLA NEBU + PICO BUCAL MAVERICK</t>
         </is>
       </c>
       <c r="D1800" t="n">
-        <v>572</v>
+        <v>638</v>
       </c>
     </row>
     <row r="1801">
       <c r="A1801" t="inlineStr">
         <is>
-          <t>5920</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="B1801" t="inlineStr">
         <is>
-          <t>0652217609448</t>
+          <t>0652217311617</t>
         </is>
       </c>
       <c r="C1801" t="inlineStr">
         <is>
-          <t>REP NEB PISTON AMPOLLA NEBU + PICO BUCAL MAVERICK</t>
+          <t>REP NEB PISTON MANGUERA PLASTICA MAVERICK</t>
         </is>
       </c>
       <c r="D1801" t="n">
-        <v>638</v>
+        <v>388</v>
       </c>
     </row>
     <row r="1802">
       <c r="A1802" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>5922</t>
         </is>
       </c>
       <c r="B1802" t="inlineStr">
         <is>
-          <t>0652217311617</t>
+          <t>0652217570168</t>
         </is>
       </c>
       <c r="C1802" t="inlineStr">
         <is>
-          <t>REP NEB PISTON MANGUERA PLASTICA MAVERICK</t>
+          <t>BALANZA ELEC. PERSONAL MAVERICK BPD01</t>
         </is>
       </c>
       <c r="D1802" t="n">
-        <v>388</v>
+        <v>8589</v>
       </c>
     </row>
     <row r="1803">
       <c r="A1803" t="inlineStr">
         <is>
-          <t>5922</t>
+          <t>5923</t>
         </is>
       </c>
       <c r="B1803" t="inlineStr">
         <is>
-          <t>0652217570168</t>
+          <t>0652217904321</t>
         </is>
       </c>
       <c r="C1803" t="inlineStr">
         <is>
-          <t>BALANZA ELEC. PERSONAL MAVERICK BPD01</t>
+          <t>CORTADORA DE CABELLO MAVERICK BEA0100</t>
         </is>
       </c>
       <c r="D1803" t="n">
-        <v>8589</v>
+        <v>13757</v>
       </c>
     </row>
     <row r="1804">
       <c r="A1804" t="inlineStr">
         <is>
-          <t>5923</t>
+          <t>5925</t>
         </is>
       </c>
       <c r="B1804" t="inlineStr">
         <is>
-          <t>0652217904321</t>
+          <t>0652217968057</t>
         </is>
       </c>
       <c r="C1804" t="inlineStr">
         <is>
-          <t>CORTADORA DE CABELLO MAVERICK BEA0100</t>
+          <t>MULETA ALUMINIO MAVERICK PAR (GRANDE) BT707</t>
         </is>
       </c>
       <c r="D1804" t="n">
-        <v>13757</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="1805">
       <c r="A1805" t="inlineStr">
         <is>
-          <t>5925</t>
+          <t>5926</t>
         </is>
       </c>
       <c r="B1805" t="inlineStr">
         <is>
-          <t>0652217968057</t>
+          <t>0652217184860</t>
         </is>
       </c>
       <c r="C1805" t="inlineStr">
         <is>
-          <t>MULETA ALUMINIO MAVERICK PAR (GRANDE) BT707</t>
+          <t>BASTON TRIPODE DE ALUMINIO MAVERICK BT741LB</t>
         </is>
       </c>
       <c r="D1805" t="n">
-        <v>7682</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="1806">
       <c r="A1806" t="inlineStr">
         <is>
-          <t>5926</t>
+          <t>5927</t>
         </is>
       </c>
       <c r="B1806" t="inlineStr">
         <is>
-          <t>0652217184860</t>
+          <t>0767870859120</t>
         </is>
       </c>
       <c r="C1806" t="inlineStr">
         <is>
-          <t>BASTON TRIPODE DE ALUMINIO MAVERICK BT741LB</t>
+          <t>VASELINA SOLIDA TRIFARMA POTE x 30 grs</t>
         </is>
       </c>
       <c r="D1806" t="n">
-        <v>5261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1807">
       <c r="A1807" t="inlineStr">
         <is>
-          <t>5927</t>
+          <t>5928</t>
         </is>
       </c>
       <c r="B1807" t="inlineStr">
         <is>
-          <t>0767870859120</t>
+          <t>0652217419429</t>
         </is>
       </c>
       <c r="C1807" t="inlineStr">
         <is>
-          <t>VASELINA SOLIDA TRIFARMA POTE x 30 grs</t>
+          <t>AFEITADORA MAVERICK SHAVER1</t>
         </is>
       </c>
       <c r="D1807" t="n">
-        <v>244</v>
+        <v>12793</v>
       </c>
     </row>
     <row r="1808">
       <c r="A1808" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B1808" t="inlineStr">
         <is>
-          <t>0652217419429</t>
+          <t>0652217309287</t>
         </is>
       </c>
       <c r="C1808" t="inlineStr">
         <is>
-          <t>AFEITADORA MAVERICK SHAVER1</t>
+          <t>OXIMETRO MAVERICK CON CURVA CMS50D</t>
         </is>
       </c>
       <c r="D1808" t="n">
-        <v>12793</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="1809">
       <c r="A1809" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5930</t>
         </is>
       </c>
       <c r="B1809" t="inlineStr">
         <is>
-          <t>0652217309287</t>
+          <t>7798052377142</t>
         </is>
       </c>
       <c r="C1809" t="inlineStr">
         <is>
-          <t>OXIMETRO MAVERICK CON CURVA CMS50D</t>
+          <t>TELA AD. OXIDO ZINC FUREY HOSP. (MOD 2) 2,5 cm x 9 mts (7142)</t>
         </is>
       </c>
       <c r="D1809" t="n">
-        <v>6036</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="1810">
       <c r="A1810" t="inlineStr">
         <is>
-          <t>5930</t>
+          <t>5931</t>
         </is>
       </c>
       <c r="B1810" t="inlineStr">
         <is>
-          <t>7798052377142</t>
+          <t>7798052377159</t>
         </is>
       </c>
       <c r="C1810" t="inlineStr">
         <is>
-          <t>TELA AD. OXIDO ZINC FUREY HOSP. (MOD 2) 2,5 cm x 9 mts (7142)</t>
+          <t>TELA AD. OXIDO ZINC FUREY HOSP. (MOD 2) 5 cm x 9 mts (7159)</t>
         </is>
       </c>
       <c r="D1810" t="n">
-        <v>3301</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="1811">
       <c r="A1811" t="inlineStr">
         <is>
-          <t>5931</t>
+          <t>5932</t>
         </is>
       </c>
       <c r="B1811" t="inlineStr">
         <is>
-          <t>7798052377159</t>
+          <t>7790000004032</t>
         </is>
       </c>
       <c r="C1811" t="inlineStr">
         <is>
-          <t>TELA AD. OXIDO ZINC FUREY HOSP. (MOD 2) 5 cm x 9 mts (7159)</t>
+          <t>O2+ ESPONJA MAQUILLAJE BEAUTY BLENDER NEGRA (4032)</t>
         </is>
       </c>
       <c r="D1811" t="n">
-        <v>3301</v>
+        <v>519</v>
       </c>
     </row>
     <row r="1812">
       <c r="A1812" t="inlineStr">
         <is>
-          <t>5932</t>
+          <t>5945</t>
         </is>
       </c>
       <c r="B1812" t="inlineStr">
         <is>
-          <t>7790000004032</t>
+          <t>7793090022016</t>
         </is>
       </c>
       <c r="C1812" t="inlineStr">
         <is>
-          <t>O2+ ESPONJA MAQUILLAJE BEAUTY BLENDER NEGRA (4032)</t>
+          <t>ACQUA EDT Nº 6 SCENE x 125 ml</t>
         </is>
       </c>
       <c r="D1812" t="n">
-        <v>519</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1813">
       <c r="A1813" t="inlineStr">
         <is>
-          <t>5945</t>
+          <t>5946</t>
         </is>
       </c>
       <c r="B1813" t="inlineStr">
         <is>
-          <t>7793090022016</t>
+          <t>7793090022023</t>
         </is>
       </c>
       <c r="C1813" t="inlineStr">
         <is>
-          <t>ACQUA EDT Nº 6 SCENE x 125 ml</t>
+          <t>ACQUA EDT Nº 7 BE GOOD x 125 ml</t>
         </is>
       </c>
       <c r="D1813" t="n">
@@ -36711,17 +36711,17 @@
     <row r="1814">
       <c r="A1814" t="inlineStr">
         <is>
-          <t>5946</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B1814" t="inlineStr">
         <is>
-          <t>7793090022023</t>
+          <t>7793090022030</t>
         </is>
       </c>
       <c r="C1814" t="inlineStr">
         <is>
-          <t>ACQUA EDT Nº 7 BE GOOD x 125 ml</t>
+          <t>ACQUA EDT Nº 8 INSIDE x 125 ml</t>
         </is>
       </c>
       <c r="D1814" t="n">
@@ -36731,17 +36731,17 @@
     <row r="1815">
       <c r="A1815" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B1815" t="inlineStr">
         <is>
-          <t>7793090022030</t>
+          <t>7793090022047</t>
         </is>
       </c>
       <c r="C1815" t="inlineStr">
         <is>
-          <t>ACQUA EDT Nº 8 INSIDE x 125 ml</t>
+          <t>ACQUA EDT Nº 9 OLIVIA x 125 ml</t>
         </is>
       </c>
       <c r="D1815" t="n">
@@ -36751,17 +36751,17 @@
     <row r="1816">
       <c r="A1816" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5949</t>
         </is>
       </c>
       <c r="B1816" t="inlineStr">
         <is>
-          <t>7793090022047</t>
+          <t>7793090022054</t>
         </is>
       </c>
       <c r="C1816" t="inlineStr">
         <is>
-          <t>ACQUA EDT Nº 9 OLIVIA x 125 ml</t>
+          <t>ACQUA EDT Nº 5 LA VIDA ES MUY BELLA x 125 ml</t>
         </is>
       </c>
       <c r="D1816" t="n">
@@ -36771,17 +36771,17 @@
     <row r="1817">
       <c r="A1817" t="inlineStr">
         <is>
-          <t>5949</t>
+          <t>5950</t>
         </is>
       </c>
       <c r="B1817" t="inlineStr">
         <is>
-          <t>7793090022054</t>
+          <t>7793090022061</t>
         </is>
       </c>
       <c r="C1817" t="inlineStr">
         <is>
-          <t>ACQUA EDT Nº 5 LA VIDA ES MUY BELLA x 125 ml</t>
+          <t>ACQUA EDT Nº 4 202 PINK x 125 ml</t>
         </is>
       </c>
       <c r="D1817" t="n">
@@ -36791,17 +36791,17 @@
     <row r="1818">
       <c r="A1818" t="inlineStr">
         <is>
-          <t>5950</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="B1818" t="inlineStr">
         <is>
-          <t>7793090022061</t>
+          <t>7793090022078</t>
         </is>
       </c>
       <c r="C1818" t="inlineStr">
         <is>
-          <t>ACQUA EDT Nº 4 202 PINK x 125 ml</t>
+          <t>ACQUA EDT Nº 3 FLOR x 125 ml</t>
         </is>
       </c>
       <c r="D1818" t="n">
@@ -36811,17 +36811,17 @@
     <row r="1819">
       <c r="A1819" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>5952</t>
         </is>
       </c>
       <c r="B1819" t="inlineStr">
         <is>
-          <t>7793090022078</t>
+          <t>7793090022085</t>
         </is>
       </c>
       <c r="C1819" t="inlineStr">
         <is>
-          <t>ACQUA EDT Nº 3 FLOR x 125 ml</t>
+          <t>ACQUA EDT Nº 2 NINI x 125 ml</t>
         </is>
       </c>
       <c r="D1819" t="n">
@@ -36831,17 +36831,17 @@
     <row r="1820">
       <c r="A1820" t="inlineStr">
         <is>
-          <t>5952</t>
+          <t>5953</t>
         </is>
       </c>
       <c r="B1820" t="inlineStr">
         <is>
-          <t>7793090022085</t>
+          <t>7793090022092</t>
         </is>
       </c>
       <c r="C1820" t="inlineStr">
         <is>
-          <t>ACQUA EDT Nº 2 NINI x 125 ml</t>
+          <t>ACQUA EDT Nº 1 LADY MILES x 125 ml</t>
         </is>
       </c>
       <c r="D1820" t="n">
@@ -36851,37 +36851,37 @@
     <row r="1821">
       <c r="A1821" t="inlineStr">
         <is>
-          <t>5953</t>
+          <t>5959</t>
         </is>
       </c>
       <c r="B1821" t="inlineStr">
         <is>
-          <t>7793090022092</t>
+          <t>7798149645635</t>
         </is>
       </c>
       <c r="C1821" t="inlineStr">
         <is>
-          <t>ACQUA EDT Nº 1 LADY MILES x 125 ml</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS VAINILLA x 1 unid.</t>
         </is>
       </c>
       <c r="D1821" t="n">
-        <v>753</v>
+        <v>346</v>
       </c>
     </row>
     <row r="1822">
       <c r="A1822" t="inlineStr">
         <is>
-          <t>5959</t>
+          <t>5960</t>
         </is>
       </c>
       <c r="B1822" t="inlineStr">
         <is>
-          <t>7798149645635</t>
+          <t>7798149645628</t>
         </is>
       </c>
       <c r="C1822" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS VAINILLA x 1 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS CELESTE x 1 unid.</t>
         </is>
       </c>
       <c r="D1822" t="n">
@@ -36891,17 +36891,17 @@
     <row r="1823">
       <c r="A1823" t="inlineStr">
         <is>
-          <t>5960</t>
+          <t>5961</t>
         </is>
       </c>
       <c r="B1823" t="inlineStr">
         <is>
-          <t>7798149645628</t>
+          <t>7798149645611</t>
         </is>
       </c>
       <c r="C1823" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS CELESTE x 1 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS NEGRO x 1 unid.</t>
         </is>
       </c>
       <c r="D1823" t="n">
@@ -36911,17 +36911,17 @@
     <row r="1824">
       <c r="A1824" t="inlineStr">
         <is>
-          <t>5961</t>
+          <t>5962</t>
         </is>
       </c>
       <c r="B1824" t="inlineStr">
         <is>
-          <t>7798149645611</t>
+          <t>7798149645604</t>
         </is>
       </c>
       <c r="C1824" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS NEGRO x 1 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS ROSA x 1 unid.</t>
         </is>
       </c>
       <c r="D1824" t="n">
@@ -36931,17 +36931,17 @@
     <row r="1825">
       <c r="A1825" t="inlineStr">
         <is>
-          <t>5962</t>
+          <t>5963</t>
         </is>
       </c>
       <c r="B1825" t="inlineStr">
         <is>
-          <t>7798149645604</t>
+          <t>7798149645598</t>
         </is>
       </c>
       <c r="C1825" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS ROSA x 1 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS LILA x 1 unid.</t>
         </is>
       </c>
       <c r="D1825" t="n">
@@ -36951,117 +36951,117 @@
     <row r="1826">
       <c r="A1826" t="inlineStr">
         <is>
-          <t>5963</t>
+          <t>5964</t>
         </is>
       </c>
       <c r="B1826" t="inlineStr">
         <is>
-          <t>7798149645598</t>
+          <t>7798149645574</t>
         </is>
       </c>
       <c r="C1826" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS LILA x 1 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 2 unid.</t>
         </is>
       </c>
       <c r="D1826" t="n">
-        <v>346</v>
+        <v>606</v>
       </c>
     </row>
     <row r="1827">
       <c r="A1827" t="inlineStr">
         <is>
-          <t>5964</t>
+          <t>5965</t>
         </is>
       </c>
       <c r="B1827" t="inlineStr">
         <is>
-          <t>7798149645574</t>
+          <t>7798149645567</t>
         </is>
       </c>
       <c r="C1827" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 2 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 4 unid.</t>
         </is>
       </c>
       <c r="D1827" t="n">
-        <v>606</v>
+        <v>687</v>
       </c>
     </row>
     <row r="1828">
       <c r="A1828" t="inlineStr">
         <is>
-          <t>5965</t>
+          <t>5967</t>
         </is>
       </c>
       <c r="B1828" t="inlineStr">
         <is>
-          <t>7798149645567</t>
+          <t>7795800570763</t>
         </is>
       </c>
       <c r="C1828" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 4 unid.</t>
+          <t>CEPILLO NEUMATICO DELFIN CHICO (0763)</t>
         </is>
       </c>
       <c r="D1828" t="n">
-        <v>687</v>
+        <v>520</v>
       </c>
     </row>
     <row r="1829">
       <c r="A1829" t="inlineStr">
         <is>
-          <t>5967</t>
+          <t>5968</t>
         </is>
       </c>
       <c r="B1829" t="inlineStr">
         <is>
-          <t>7795800570763</t>
+          <t>7791914552794</t>
         </is>
       </c>
       <c r="C1829" t="inlineStr">
         <is>
-          <t>CEPILLO NEUMATICO DELFIN CHICO (0763)</t>
+          <t>TENS.ANEROIDE CORONET C/ESTETOSCOPIO TIPO ENFERMERO</t>
         </is>
       </c>
       <c r="D1829" t="n">
-        <v>496</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="1830">
       <c r="A1830" t="inlineStr">
         <is>
-          <t>5968</t>
+          <t>5969</t>
         </is>
       </c>
       <c r="B1830" t="inlineStr">
         <is>
-          <t>7791914552794</t>
+          <t>7798327346132</t>
         </is>
       </c>
       <c r="C1830" t="inlineStr">
         <is>
-          <t>TENS.ANEROIDE CORONET C/ESTETOSCOPIO TIPO ENFERMERO</t>
+          <t>JAC SOMBRA INDIVIDUAL BLANCO PERLADO 520/027</t>
         </is>
       </c>
       <c r="D1830" t="n">
-        <v>6005</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1831">
       <c r="A1831" t="inlineStr">
         <is>
-          <t>5969</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B1831" t="inlineStr">
         <is>
-          <t>7798327346132</t>
+          <t>7798327346156</t>
         </is>
       </c>
       <c r="C1831" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL BLANCO PERLADO 520/027</t>
+          <t>JAC SOMBRA INDIVIDUAL ROSA MARRON MATE 520/029</t>
         </is>
       </c>
       <c r="D1831" t="n">
@@ -37071,17 +37071,17 @@
     <row r="1832">
       <c r="A1832" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>5972</t>
         </is>
       </c>
       <c r="B1832" t="inlineStr">
         <is>
-          <t>7798327346156</t>
+          <t>7798327346163</t>
         </is>
       </c>
       <c r="C1832" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL ROSA MARRON MATE 520/029</t>
+          <t>JAC SOMBRA INDIVIDUAL CHOCOLATE PERLADO 520/030</t>
         </is>
       </c>
       <c r="D1832" t="n">
@@ -37091,17 +37091,17 @@
     <row r="1833">
       <c r="A1833" t="inlineStr">
         <is>
-          <t>5972</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B1833" t="inlineStr">
         <is>
-          <t>7798327346163</t>
+          <t>7798327346170</t>
         </is>
       </c>
       <c r="C1833" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL CHOCOLATE PERLADO 520/030</t>
+          <t>JAC SOMBRA INDIVIDUAL AZUL DESNATURADO MATE 520/031</t>
         </is>
       </c>
       <c r="D1833" t="n">
@@ -37111,17 +37111,17 @@
     <row r="1834">
       <c r="A1834" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5974</t>
         </is>
       </c>
       <c r="B1834" t="inlineStr">
         <is>
-          <t>7798327346170</t>
+          <t>7798327346286</t>
         </is>
       </c>
       <c r="C1834" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL AZUL DESNATURADO MATE 520/031</t>
+          <t>JAC SOMBRA INDIVIDUAL GRIS MATE 520/032</t>
         </is>
       </c>
       <c r="D1834" t="n">
@@ -37131,17 +37131,17 @@
     <row r="1835">
       <c r="A1835" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>5975</t>
         </is>
       </c>
       <c r="B1835" t="inlineStr">
         <is>
-          <t>7798327346286</t>
+          <t>7798327346187</t>
         </is>
       </c>
       <c r="C1835" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL GRIS MATE 520/032</t>
+          <t>JAC SOMBRA INDIVIDUAL NEGRO MATE 520/033</t>
         </is>
       </c>
       <c r="D1835" t="n">
@@ -37151,257 +37151,257 @@
     <row r="1836">
       <c r="A1836" t="inlineStr">
         <is>
-          <t>5975</t>
+          <t>5976</t>
         </is>
       </c>
       <c r="B1836" t="inlineStr">
         <is>
-          <t>7798327346187</t>
+          <t>7798327348013</t>
         </is>
       </c>
       <c r="C1836" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL NEGRO MATE 520/033</t>
+          <t>JAC PALETA DE SOMBRAS x 12 COLORES 966</t>
         </is>
       </c>
       <c r="D1836" t="n">
-        <v>907</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="1837">
       <c r="A1837" t="inlineStr">
         <is>
-          <t>5976</t>
+          <t>5977</t>
         </is>
       </c>
       <c r="B1837" t="inlineStr">
         <is>
-          <t>7798327348013</t>
+          <t>7798033108536</t>
         </is>
       </c>
       <c r="C1837" t="inlineStr">
         <is>
-          <t>JAC PALETA DE SOMBRAS x 12 COLORES 966</t>
+          <t>TEST DE EMBARAZO IRAOLA</t>
         </is>
       </c>
       <c r="D1837" t="n">
-        <v>3552</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1838">
       <c r="A1838" t="inlineStr">
         <is>
-          <t>5977</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="B1838" t="inlineStr">
         <is>
-          <t>7798033108536</t>
+          <t>7798021991690</t>
         </is>
       </c>
       <c r="C1838" t="inlineStr">
         <is>
-          <t>TEST DE EMBARAZO IRAOLA</t>
+          <t>VENDA GASA IODOFORMADA TABLADA 7 cm x 3 mts (1690)</t>
         </is>
       </c>
       <c r="D1838" t="n">
-        <v>111</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1839">
       <c r="A1839" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>5980</t>
         </is>
       </c>
       <c r="B1839" t="inlineStr">
         <is>
-          <t>7798021991690</t>
+          <t>7793066700061</t>
         </is>
       </c>
       <c r="C1839" t="inlineStr">
         <is>
-          <t>VENDA GASA IODOFORMADA TABLADA 7 cm x 3 mts (1690)</t>
+          <t>BOLSA AGUA CALIENTE BEBEFANTITOS CON FUNDA INFANTIL x 350 ml</t>
         </is>
       </c>
       <c r="D1839" t="n">
-        <v>1872</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="1840">
       <c r="A1840" t="inlineStr">
         <is>
-          <t>5980</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="B1840" t="inlineStr">
         <is>
-          <t>7793066700061</t>
+          <t>7798024621303</t>
         </is>
       </c>
       <c r="C1840" t="inlineStr">
         <is>
-          <t>BOLSA AGUA CALIENTE BEBEFANTITOS CON FUNDA INFANTIL x 350 ml</t>
+          <t>GAL LECHE DE PEPINO x 300 cc</t>
         </is>
       </c>
       <c r="D1840" t="n">
-        <v>2677</v>
+        <v>541</v>
       </c>
     </row>
     <row r="1841">
       <c r="A1841" t="inlineStr">
         <is>
-          <t>5981</t>
+          <t>5982</t>
         </is>
       </c>
       <c r="B1841" t="inlineStr">
         <is>
-          <t>7798024621303</t>
+          <t>7798024629903</t>
         </is>
       </c>
       <c r="C1841" t="inlineStr">
         <is>
-          <t>GAL LECHE DE PEPINO x 300 cc</t>
+          <t>SEMBLANNT GEL EXFOLIANTE ESPUMOSO x 300 cc</t>
         </is>
       </c>
       <c r="D1841" t="n">
-        <v>541</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1842">
       <c r="A1842" t="inlineStr">
         <is>
-          <t>5982</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="B1842" t="inlineStr">
         <is>
-          <t>7798024629903</t>
+          <t>7798024620887</t>
         </is>
       </c>
       <c r="C1842" t="inlineStr">
         <is>
-          <t>SEMBLANNT GEL EXFOLIANTE ESPUMOSO x 300 cc</t>
+          <t>SEMBLANNT CREMA ANTIARRUGAS Q10 x 60 grs</t>
         </is>
       </c>
       <c r="D1842" t="n">
-        <v>867</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1843">
       <c r="A1843" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="B1843" t="inlineStr">
         <is>
-          <t>7798024620887</t>
+          <t>7798024621914</t>
         </is>
       </c>
       <c r="C1843" t="inlineStr">
         <is>
-          <t>SEMBLANNT CREMA ANTIARRUGAS Q10 x 60 grs</t>
+          <t>SEMBLANNT CREMA ANTIARRUGAS CUTIS SECO x 60 grs</t>
         </is>
       </c>
       <c r="D1843" t="n">
-        <v>1070</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1844">
       <c r="A1844" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="B1844" t="inlineStr">
         <is>
-          <t>7798024621914</t>
+          <t>7798024621969</t>
         </is>
       </c>
       <c r="C1844" t="inlineStr">
         <is>
-          <t>SEMBLANNT CREMA ANTIARRUGAS CUTIS SECO x 60 grs</t>
+          <t>SEMBLANNT CREMA BLANQUEADORA x 60 grs</t>
         </is>
       </c>
       <c r="D1844" t="n">
-        <v>1034</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1845">
       <c r="A1845" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>5987</t>
         </is>
       </c>
       <c r="B1845" t="inlineStr">
         <is>
-          <t>7798024621969</t>
+          <t>7798024629675</t>
         </is>
       </c>
       <c r="C1845" t="inlineStr">
         <is>
-          <t>SEMBLANNT CREMA BLANQUEADORA x 60 grs</t>
+          <t>SEMBLANNT EMULSIÓN LIMPIEZA DESMAQUILLANTE x 300 cc</t>
         </is>
       </c>
       <c r="D1845" t="n">
-        <v>1019</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1846">
       <c r="A1846" t="inlineStr">
         <is>
-          <t>5987</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="B1846" t="inlineStr">
         <is>
-          <t>7798024629675</t>
+          <t>7798024622348</t>
         </is>
       </c>
       <c r="C1846" t="inlineStr">
         <is>
-          <t>SEMBLANNT EMULSIÓN LIMPIEZA DESMAQUILLANTE x 300 cc</t>
+          <t>MIKUELA AGUA MICELAR x 250 cc</t>
         </is>
       </c>
       <c r="D1846" t="n">
-        <v>873</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1847">
       <c r="A1847" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>5989</t>
         </is>
       </c>
       <c r="B1847" t="inlineStr">
         <is>
-          <t>7798024622348</t>
+          <t>0000077902306</t>
         </is>
       </c>
       <c r="C1847" t="inlineStr">
         <is>
-          <t>MIKUELA AGUA MICELAR x 250 cc</t>
+          <t>ES QUITAESMALTE  FORTALECEDOR x 60 ml</t>
         </is>
       </c>
       <c r="D1847" t="n">
-        <v>561</v>
+        <v>144</v>
       </c>
     </row>
     <row r="1848">
       <c r="A1848" t="inlineStr">
         <is>
-          <t>5989</t>
+          <t>5990</t>
         </is>
       </c>
       <c r="B1848" t="inlineStr">
         <is>
-          <t>0000077902306</t>
+          <t>0000077900388</t>
         </is>
       </c>
       <c r="C1848" t="inlineStr">
         <is>
-          <t>ES QUITAESMALTE  FORTALECEDOR x 60 ml</t>
+          <t>ES QUITAESMALTE  HUMECTANTE x 60 ml</t>
         </is>
       </c>
       <c r="D1848" t="n">
@@ -37411,157 +37411,157 @@
     <row r="1849">
       <c r="A1849" t="inlineStr">
         <is>
-          <t>5990</t>
+          <t>5993</t>
         </is>
       </c>
       <c r="B1849" t="inlineStr">
         <is>
-          <t>0000077900388</t>
+          <t>0000077968470</t>
         </is>
       </c>
       <c r="C1849" t="inlineStr">
         <is>
-          <t>ES QUITAESMALTE  HUMECTANTE x 60 ml</t>
+          <t>ES QUITAESMALTE HUMECTANTE x 120 ml</t>
         </is>
       </c>
       <c r="D1849" t="n">
-        <v>144</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1850">
       <c r="A1850" t="inlineStr">
         <is>
-          <t>5993</t>
+          <t>5995</t>
         </is>
       </c>
       <c r="B1850" t="inlineStr">
         <is>
-          <t>0000077968470</t>
+          <t>7791199003608</t>
         </is>
       </c>
       <c r="C1850" t="inlineStr">
         <is>
-          <t>ES QUITAESMALTE HUMECTANTE x 120 ml</t>
+          <t>ES TOALLITAS HUMEDAS FLOW PACK x 50 u.</t>
         </is>
       </c>
       <c r="D1850" t="n">
-        <v>231</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1851">
       <c r="A1851" t="inlineStr">
         <is>
-          <t>5995</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B1851" t="inlineStr">
         <is>
-          <t>7791199003608</t>
+          <t>7798149644829</t>
         </is>
       </c>
       <c r="C1851" t="inlineStr">
         <is>
-          <t>ES TOALLITAS HUMEDAS FLOW PACK x 50 u.</t>
+          <t>ATOMPROTECT CREMA CORPORAL x 400cc</t>
         </is>
       </c>
       <c r="D1851" t="n">
-        <v>367</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B1852" t="inlineStr">
         <is>
-          <t>7798149644829</t>
+          <t>7798149645833</t>
         </is>
       </c>
       <c r="C1852" t="inlineStr">
         <is>
-          <t>ATOMPROTECT CREMA CORPORAL x 400cc</t>
+          <t>ATOMPROTECT REPELENTE CON GLICERINA x 170cc</t>
         </is>
       </c>
       <c r="D1852" t="n">
-        <v>585</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1853">
       <c r="A1853" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5998</t>
         </is>
       </c>
       <c r="B1853" t="inlineStr">
         <is>
-          <t>7798149645833</t>
+          <t>7798149644898</t>
         </is>
       </c>
       <c r="C1853" t="inlineStr">
         <is>
-          <t>ATOMPROTECT REPELENTE CON GLICERINA x 170cc</t>
+          <t>ATOMPROTECT SHAMPOO ANTICASPA x 400cc</t>
         </is>
       </c>
       <c r="D1853" t="n">
-        <v>372</v>
+        <v>417</v>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" t="inlineStr">
         <is>
-          <t>5998</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
-          <t>7798149644898</t>
+          <t>7798149644904</t>
         </is>
       </c>
       <c r="C1854" t="inlineStr">
         <is>
-          <t>ATOMPROTECT SHAMPOO ANTICASPA x 400cc</t>
+          <t>ATOMPROTECT ACONDICIONADOR ANTICASPA x 400cc</t>
         </is>
       </c>
       <c r="D1854" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>6002</t>
         </is>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>7798149644904</t>
+          <t>7798026340769</t>
         </is>
       </c>
       <c r="C1855" t="inlineStr">
         <is>
-          <t>ATOMPROTECT ACONDICIONADOR ANTICASPA x 400cc</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. PIEL</t>
         </is>
       </c>
       <c r="D1855" t="n">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>6003</t>
         </is>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t>7798026340769</t>
+          <t>7798026340080</t>
         </is>
       </c>
       <c r="C1856" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. PIEL</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. NEGRO</t>
         </is>
       </c>
       <c r="D1856" t="n">
@@ -37571,17 +37571,17 @@
     <row r="1857">
       <c r="A1857" t="inlineStr">
         <is>
-          <t>6003</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
-          <t>7798026340080</t>
+          <t>7798026340707</t>
         </is>
       </c>
       <c r="C1857" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. NEGRO</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. AZUL</t>
         </is>
       </c>
       <c r="D1857" t="n">
@@ -37591,37 +37591,37 @@
     <row r="1858">
       <c r="A1858" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6005</t>
         </is>
       </c>
       <c r="B1858" t="inlineStr">
         <is>
-          <t>7798026340707</t>
+          <t>7798026340776</t>
         </is>
       </c>
       <c r="C1858" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. AZUL</t>
+          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. PIEL</t>
         </is>
       </c>
       <c r="D1858" t="n">
-        <v>396</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1859">
       <c r="A1859" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>6006</t>
         </is>
       </c>
       <c r="B1859" t="inlineStr">
         <is>
-          <t>7798026340776</t>
+          <t>7798026340097</t>
         </is>
       </c>
       <c r="C1859" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. PIEL</t>
+          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. NEGRO</t>
         </is>
       </c>
       <c r="D1859" t="n">
@@ -37631,17 +37631,17 @@
     <row r="1860">
       <c r="A1860" t="inlineStr">
         <is>
-          <t>6006</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B1860" t="inlineStr">
         <is>
-          <t>7798026340097</t>
+          <t>7798026340745</t>
         </is>
       </c>
       <c r="C1860" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. NEGRO</t>
+          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. ROJO</t>
         </is>
       </c>
       <c r="D1860" t="n">
@@ -37651,37 +37651,37 @@
     <row r="1861">
       <c r="A1861" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B1861" t="inlineStr">
         <is>
-          <t>7798026340745</t>
+          <t>7798026340752</t>
         </is>
       </c>
       <c r="C1861" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. ROJO</t>
+          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. ROJO</t>
         </is>
       </c>
       <c r="D1861" t="n">
-        <v>523</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1862">
       <c r="A1862" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B1862" t="inlineStr">
         <is>
-          <t>7798026340752</t>
+          <t>7798026340783</t>
         </is>
       </c>
       <c r="C1862" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. ROJO</t>
+          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. PIEL</t>
         </is>
       </c>
       <c r="D1862" t="n">
@@ -37691,17 +37691,17 @@
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>7798026340783</t>
+          <t>7798026340721</t>
         </is>
       </c>
       <c r="C1863" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. PIEL</t>
+          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. AZUL</t>
         </is>
       </c>
       <c r="D1863" t="n">
@@ -37711,97 +37711,97 @@
     <row r="1864">
       <c r="A1864" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6011</t>
         </is>
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>7798026340721</t>
+          <t>0000078909717</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. AZUL</t>
+          <t>AGUJA BD 13x3  30G x 1/2  CAJA x100u.</t>
         </is>
       </c>
       <c r="D1864" t="n">
-        <v>664</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1865">
       <c r="A1865" t="inlineStr">
         <is>
-          <t>6011</t>
+          <t>6014</t>
         </is>
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>0000078909717</t>
+          <t>7798024629194</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr">
         <is>
-          <t>AGUJA BD 13x3  30G x 1/2  CAJA x100u.</t>
+          <t>GAL GEL EFECTO HUMEDO x 250 gr AZUL</t>
         </is>
       </c>
       <c r="D1865" t="n">
-        <v>2118</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="inlineStr">
         <is>
-          <t>6014</t>
+          <t>6018</t>
         </is>
       </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t>7798024629194</t>
+          <t>7794922587147</t>
         </is>
       </c>
       <c r="C1866" t="inlineStr">
         <is>
-          <t>GAL GEL EFECTO HUMEDO x 250 gr AZUL</t>
+          <t>XU PEGAMENTO DE PESTAÑAS C/ESPATULA x 10cc</t>
         </is>
       </c>
       <c r="D1866" t="n">
-        <v>363</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1867">
       <c r="A1867" t="inlineStr">
         <is>
-          <t>6018</t>
+          <t>6019</t>
         </is>
       </c>
       <c r="B1867" t="inlineStr">
         <is>
-          <t>7794922587147</t>
+          <t>7798026340820</t>
         </is>
       </c>
       <c r="C1867" t="inlineStr">
         <is>
-          <t>XU PEGAMENTO DE PESTAÑAS C/ESPATULA x 10cc</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA GRIS</t>
         </is>
       </c>
       <c r="D1867" t="n">
-        <v>1288</v>
+        <v>396</v>
       </c>
     </row>
     <row r="1868">
       <c r="A1868" t="inlineStr">
         <is>
-          <t>6019</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B1868" t="inlineStr">
         <is>
-          <t>7798026340820</t>
+          <t>7798026341131</t>
         </is>
       </c>
       <c r="C1868" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA GRIS</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA VERDE</t>
         </is>
       </c>
       <c r="D1868" t="n">
@@ -37811,137 +37811,137 @@
     <row r="1869">
       <c r="A1869" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6021</t>
         </is>
       </c>
       <c r="B1869" t="inlineStr">
         <is>
-          <t>7798026341131</t>
+          <t>7798026340592</t>
         </is>
       </c>
       <c r="C1869" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA VERDE</t>
+          <t>HIPO STRIP  6 x 100 mm CAJA x 10 unid.</t>
         </is>
       </c>
       <c r="D1869" t="n">
-        <v>396</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" t="inlineStr">
         <is>
-          <t>6021</t>
+          <t>6022</t>
         </is>
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t>7798026340592</t>
+          <t>7798026343111</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr">
         <is>
-          <t>HIPO STRIP  6 x 100 mm CAJA x 10 unid.</t>
+          <t>HIPO SILI-CARE 4 cm x 15 cm SOBRE x 2 apósitos.</t>
         </is>
       </c>
       <c r="D1870" t="n">
-        <v>784</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="1871">
       <c r="A1871" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>6023</t>
         </is>
       </c>
       <c r="B1871" t="inlineStr">
         <is>
-          <t>7798026343111</t>
+          <t>7798021991409</t>
         </is>
       </c>
       <c r="C1871" t="inlineStr">
         <is>
-          <t>HIPO SILI-CARE 4 cm x 15 cm SOBRE x 2 apósitos.</t>
+          <t>CREMA OXIG TABLADA 30 v 100 cc.HIERBA</t>
         </is>
       </c>
       <c r="D1871" t="n">
-        <v>6578</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1872">
       <c r="A1872" t="inlineStr">
         <is>
-          <t>6023</t>
+          <t>6024</t>
         </is>
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t>7798021991409</t>
+          <t>7798021991393</t>
         </is>
       </c>
       <c r="C1872" t="inlineStr">
         <is>
-          <t>CREMA OXIG TABLADA 30 v 100 cc.HIERBA</t>
+          <t>CREMA OXIG TABLADA 30 VOL. x 100 cc</t>
         </is>
       </c>
       <c r="D1872" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1873">
       <c r="A1873" t="inlineStr">
         <is>
-          <t>6024</t>
+          <t>6025</t>
         </is>
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>7798021991393</t>
+          <t>7798021991188</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr">
         <is>
-          <t>CREMA OXIG TABLADA 30 VOL. x 100 cc</t>
+          <t>ACEITE ALMENDRAS DULCE TIPO TABLADAx  40 cc</t>
         </is>
       </c>
       <c r="D1873" t="n">
-        <v>207</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" t="inlineStr">
         <is>
-          <t>6025</t>
+          <t>6030</t>
         </is>
       </c>
       <c r="B1874" t="inlineStr">
         <is>
-          <t>7798021991188</t>
+          <t>7793090500521</t>
         </is>
       </c>
       <c r="C1874" t="inlineStr">
         <is>
-          <t>ACEITE ALMENDRAS DULCE TIPO TABLADAx  40 cc</t>
+          <t>DMG CREMA MANOS Y CUERPO SWEET CREAM VAINILLA x 60 grs.</t>
         </is>
       </c>
       <c r="D1874" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="inlineStr">
         <is>
-          <t>6030</t>
+          <t>6031</t>
         </is>
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>7793090500521</t>
+          <t>7793090500538</t>
         </is>
       </c>
       <c r="C1875" t="inlineStr">
         <is>
-          <t>DMG CREMA MANOS Y CUERPO SWEET CREAM VAINILLA x 60 grs.</t>
+          <t>DMG CREMA MANOS Y CUERPO SOFT BUTTER KARITE x 60 grs.</t>
         </is>
       </c>
       <c r="D1875" t="n">
@@ -37951,17 +37951,17 @@
     <row r="1876">
       <c r="A1876" t="inlineStr">
         <is>
-          <t>6031</t>
+          <t>6032</t>
         </is>
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>7793090500538</t>
+          <t>7793090500514</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr">
         <is>
-          <t>DMG CREMA MANOS Y CUERPO SOFT BUTTER KARITE x 60 grs.</t>
+          <t>DMG CREMA MANOS Y CUERPO FUNNY BERRY FRUTOS ROJO x 60 grs.</t>
         </is>
       </c>
       <c r="D1876" t="n">
@@ -37971,21 +37971,161 @@
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>6032</t>
+          <t>6051</t>
         </is>
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>7793090500514</t>
+          <t>7798008964723</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr">
         <is>
-          <t>DMG CREMA MANOS Y CUERPO FUNNY BERRY FRUTOS ROJO x 60 grs.</t>
+          <t>OTO DEPILOVE CUERPO CREMA DEPILATORIA x 30 g</t>
         </is>
       </c>
       <c r="D1877" t="n">
-        <v>254</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>6052</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>7798008964761</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>OTO DEPILOVE HOMBRE CREMA DEPILATORIA x 30 g</t>
+        </is>
+      </c>
+      <c r="D1878" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>6053</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>7798008964747</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>OTO DEPILOVE INTIMO CREMA DEPILATORIA x 30 g</t>
+        </is>
+      </c>
+      <c r="D1879" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>6054</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>7798008964709</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>OTO DEPILOVE ROSTRO CREMA DEPILATORIA x 10 g</t>
+        </is>
+      </c>
+      <c r="D1880" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>6055</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>7798382383134</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>OTO CREMA CORPORAL HIDRATANTE POMO x 250 g</t>
+        </is>
+      </c>
+      <c r="D1881" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>6056</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>7798382383141</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>OTO CREMA CORPORAL REAFIRMANTE POMO x 250 g</t>
+        </is>
+      </c>
+      <c r="D1882" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>6057</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>7798382383158</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>OTO CREMA CORPORAL NUTRICION POMO x 250 g</t>
+        </is>
+      </c>
+      <c r="D1883" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>6071</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>7798068824814</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>ACEITE DE ALMENDRAS PURO SANADROG x 30 cc</t>
+        </is>
+      </c>
+      <c r="D1884" t="n">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
